--- a/results/merged_result_MJ.xlsx
+++ b/results/merged_result_MJ.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS49"/>
+  <dimension ref="A1:AS52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <col width="23" customWidth="1" min="42" max="42"/>
     <col width="30" customWidth="1" min="43" max="43"/>
     <col width="12" customWidth="1" min="44" max="44"/>
-    <col width="13" customWidth="1" min="45" max="45"/>
+    <col width="19" customWidth="1" min="45" max="45"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4490,133 +4490,136 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4866978844438656768</t>
+          <t>4111366313257506560</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GJ3317</t>
+          <t>GJ4008</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>5.56</v>
+        <v>4.78</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.945</v>
+        <v>9.597</v>
       </c>
       <c r="H26" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="I26" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="J26" t="n">
-        <v>2.43</v>
+        <v>2.982525</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>K2V</t>
+          <t>K5V</t>
         </is>
       </c>
       <c r="L26" s="3" t="n">
-        <v>42721</v>
+        <v>38525</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>43049</v>
+        <v>41787</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8980150581793293</v>
+        <v>8.930869267624914</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Two observing seasons, 2016 and 2017, scatter looks much higher (20m/s peak to peak) in the second</t>
+          <t>Only 8 obs over 9 years. RMS 4.78m/s, no clear trend</t>
         </is>
       </c>
       <c r="P26" t="n">
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>4207</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>GJ3317</t>
+          <t>GJ4008</t>
         </is>
       </c>
       <c r="V26" t="n">
-        <v>4.866978844438657e+18</v>
+        <v>4.111366313257507e+18</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>4866978844438656768</t>
+          <t>4111366313257506560</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>4866978844438656768</t>
+          <t>4111366313257506560</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>4866978844438656768</t>
+          <t>4111366313257506560</t>
         </is>
       </c>
       <c r="Z26" t="n">
-        <v>72.46790807270285</v>
+        <v>262.2759143258954</v>
       </c>
       <c r="AA26" t="n">
-        <v>-35.10813709607592</v>
+        <v>-23.83643565047791</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.486979710493088</v>
+        <v>9.582686301946641</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.254369735717773</v>
+        <v>9.06427001953125</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.71633243560791</v>
+        <v>9.824929237365723</v>
       </c>
       <c r="AE26" t="n">
-        <v>6.625423431396484</v>
+        <v>8.216133117675781</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.090909004211426</v>
+        <v>1.608796119689941</v>
       </c>
       <c r="AG26" t="n">
-        <v>56.53743031557914</v>
+        <v>54.36675345788812</v>
       </c>
       <c r="AH26" t="n">
-        <v>4899.6337890625</v>
+        <v>4108.18359375</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.7693394422531128</v>
+        <v>0.6369386315345764</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.3231841921806335</v>
+        <v>0.08764214813709259</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.7889480590820312</v>
+        <v>0.5844045281410217</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.5829785885942007</v>
+        <v>0.3127667013141585</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.1767749056106256</v>
+        <v>0.4239206123053803</v>
       </c>
       <c r="AN26" t="n">
-        <v>1.324076362230328</v>
+        <v>2.116175805293196</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
@@ -4625,17 +4628,17 @@
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>HD  30876</t>
+          <t>HD 158233</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>GJ 3317</t>
+          <t>GJ 4008</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>HIP 22451</t>
+          <t>HIP 85561</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
@@ -4647,133 +4650,133 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5073448642595674752</t>
+          <t>4866978844438656768</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GJ131</t>
+          <t>GJ3317</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E27" t="n">
-        <v>6.17</v>
+        <v>5.56</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>9.141</v>
+        <v>7.945</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.7</v>
       </c>
       <c r="I27" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="J27" t="n">
-        <v>2.442725</v>
+        <v>2.43</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>K5.5Vk:</t>
+          <t>K2V</t>
         </is>
       </c>
       <c r="L27" s="3" t="n">
-        <v>37926</v>
+        <v>42721</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>43091</v>
+        <v>43049</v>
       </c>
       <c r="N27" t="n">
-        <v>14.1409993155373</v>
+        <v>0.8980150581793293</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>13 points over 14 years, RMS 6.17m/s</t>
+          <t>Two observing seasons, 2016 and 2017, scatter looks much higher (20m/s peak to peak) in the second</t>
         </is>
       </c>
       <c r="P27" t="n">
         <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>4330</v>
+        <v>1</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>GJ131</t>
+          <t>GJ3317</t>
         </is>
       </c>
       <c r="V27" t="n">
-        <v>5.073448642595675e+18</v>
+        <v>4.866978844438657e+18</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>5073448642595674752</t>
+          <t>4866978844438656768</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>5073448642595674752</t>
+          <t>4866978844438656768</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>5073448642595674752</t>
+          <t>4866978844438656768</t>
         </is>
       </c>
       <c r="Z27" t="n">
-        <v>48.68701104937745</v>
+        <v>72.46790807270285</v>
       </c>
       <c r="AA27" t="n">
-        <v>-26.44581248850255</v>
+        <v>-35.10813709607592</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.127499003171922</v>
+        <v>7.486979710493088</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.660046577453613</v>
+        <v>7.254369735717773</v>
       </c>
       <c r="AD27" t="n">
-        <v>9.367588996887207</v>
+        <v>7.71633243560791</v>
       </c>
       <c r="AE27" t="n">
-        <v>7.845291137695312</v>
+        <v>6.625423431396484</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.522297859191895</v>
+        <v>1.090909004211426</v>
       </c>
       <c r="AG27" t="n">
-        <v>53.55426056338445</v>
+        <v>56.53743031557914</v>
       </c>
       <c r="AH27" t="n">
-        <v>4130.81005859375</v>
+        <v>4899.6337890625</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.6626129746437073</v>
+        <v>0.7693394422531128</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.1275685727596283</v>
+        <v>0.3231841921806335</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.6973951458930969</v>
+        <v>0.7889480590820312</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.3771107996215445</v>
+        <v>0.5829785885942007</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.3473858644092636</v>
+        <v>0.1767749056106256</v>
       </c>
       <c r="AN27" t="n">
-        <v>1.942157744178788</v>
+        <v>1.324076362230328</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
@@ -4782,17 +4785,17 @@
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>HD  20280</t>
+          <t>HD  30876</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>GJ 131</t>
+          <t>GJ 3317</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>HIP 15095</t>
+          <t>HIP 22451</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
@@ -4804,133 +4807,133 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6847167606385195648</t>
+          <t>5073448642595674752</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GJ785</t>
+          <t>GJ131</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1834</v>
+        <v>13</v>
       </c>
       <c r="D28" t="n">
-        <v>432</v>
+        <v>13</v>
       </c>
       <c r="E28" t="n">
-        <v>6.55</v>
+        <v>6.17</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>5.723</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.493</v>
+        <v>9.141</v>
       </c>
       <c r="I28" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="J28" t="n">
-        <v>1.03</v>
+        <v>2.442725</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>K2+V</t>
+          <t>K5.5Vk:</t>
         </is>
       </c>
       <c r="L28" s="3" t="n">
         <v>37926</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>42644</v>
+        <v>43091</v>
       </c>
       <c r="N28" t="n">
-        <v>12.91718001368925</v>
+        <v>14.1409993155373</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Two known planets, HD 192310 b at 74d, 16Me; c at 525d, 24Me. Also strong peaks in activity indicators</t>
+          <t>13 points over 14 years, RMS 6.17m/s</t>
         </is>
       </c>
       <c r="P28" t="n">
         <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>4330</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>GJ785</t>
+          <t>GJ131</t>
         </is>
       </c>
       <c r="V28" t="n">
-        <v>6.847167606385196e+18</v>
+        <v>5.073448642595675e+18</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>6847167606385195648</t>
+          <t>5073448642595674752</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>6847167606385195648</t>
+          <t>5073448642595674752</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>6847167606385195648</t>
+          <t>5073448642595674752</t>
         </is>
       </c>
       <c r="Z28" t="n">
-        <v>303.8286649315622</v>
+        <v>48.68701104937745</v>
       </c>
       <c r="AA28" t="n">
-        <v>-27.03378080946467</v>
+        <v>-26.44581248850255</v>
       </c>
       <c r="AB28" t="n">
-        <v>5.706821329026222</v>
+        <v>9.127499003171922</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.481349945068359</v>
+        <v>8.660046577453613</v>
       </c>
       <c r="AD28" t="n">
-        <v>5.935905933380127</v>
+        <v>9.367588996887207</v>
       </c>
       <c r="AE28" t="n">
-        <v>4.855769157409668</v>
+        <v>7.845291137695312</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.080136775970459</v>
+        <v>1.522297859191895</v>
       </c>
       <c r="AG28" t="n">
-        <v>113.4871798847664</v>
+        <v>53.55426056338445</v>
       </c>
       <c r="AH28" t="n">
-        <v>4978.23486328125</v>
+        <v>4130.81005859375</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.815798282623291</v>
+        <v>0.6626129746437073</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.401447057723999</v>
+        <v>0.1275685727596283</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.8517675995826721</v>
+        <v>0.6973951458930969</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.6472364904330621</v>
+        <v>0.3771107996215445</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.07801717700816505</v>
+        <v>0.3473858644092636</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.634044331325464</v>
+        <v>1.942157744178788</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
@@ -4939,17 +4942,17 @@
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>HD 192310</t>
+          <t>HD  20280</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>GJ 785</t>
+          <t>GJ 131</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>HIP 99825</t>
+          <t>HIP 15095</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
@@ -4961,136 +4964,133 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6412595290592307840</t>
+          <t>6847167606385195648</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GJ845</t>
+          <t>GJ785</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4514</v>
+        <v>1834</v>
       </c>
       <c r="D29" t="n">
-        <v>137</v>
+        <v>432</v>
       </c>
       <c r="E29" t="n">
-        <v>8.539999999999999</v>
+        <v>6.55</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>4.69</v>
+        <v>5.723</v>
       </c>
       <c r="H29" t="n">
-        <v>2.493</v>
+        <v>0.493</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="J29" t="n">
-        <v>0.348082</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>K5V</t>
+          <t>K2+V</t>
         </is>
       </c>
       <c r="L29" s="3" t="n">
-        <v>37930</v>
+        <v>37926</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>42649</v>
+        <v>42644</v>
       </c>
       <c r="N29" t="n">
-        <v>12.91991786447639</v>
+        <v>12.91718001368925</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Triple star system (Eps Ind) and one known planet, eps Ind A b at 16510d, 3.25Mj (Feng et al 2019, astrometry). 4514 obs over 137 nights!! Clear offset pre/post. Unbinned shows strong power at 1d, probably aliasing from the time series? Removing one supersampled night, lots of power in all the periodograms form 1-100d, RMS 8.94 - 2.62 m/s removing a linear trend. Binned periodograms show some power around ~280d in RV and act ind</t>
+          <t>Two known planets, HD 192310 b at 74d, 16Me; c at 525d, 24Me. Also strong peaks in activity indicators</t>
         </is>
       </c>
       <c r="P29" t="n">
         <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>4585</v>
+        <v>1</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>GJ845</t>
+          <t>GJ785</t>
         </is>
       </c>
       <c r="V29" t="n">
-        <v>6.412595290592308e+18</v>
+        <v>6.847167606385196e+18</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>6412595290592307840</t>
+          <t>6847167606385195648</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>6412595290592307840</t>
+          <t>6847167606385195648</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>6412595290592307840</t>
+          <t>6847167606385195648</t>
         </is>
       </c>
       <c r="Z29" t="n">
-        <v>330.8724078795965</v>
+        <v>303.8286649315622</v>
       </c>
       <c r="AA29" t="n">
-        <v>-56.79725466122902</v>
+        <v>-27.03378080946467</v>
       </c>
       <c r="AB29" t="n">
-        <v>4.673483854799271</v>
+        <v>5.706821329026222</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.322904109954834</v>
+        <v>5.481349945068359</v>
       </c>
       <c r="AD29" t="n">
-        <v>4.907976627349854</v>
+        <v>5.935905933380127</v>
       </c>
       <c r="AE29" t="n">
-        <v>3.610557079315186</v>
+        <v>4.855769157409668</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.297419548034668</v>
+        <v>1.080136775970459</v>
       </c>
       <c r="AG29" t="n">
-        <v>274.8431415216296</v>
+        <v>113.4871798847664</v>
       </c>
       <c r="AH29" t="n">
-        <v>4560.30322265625</v>
+        <v>4978.23486328125</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.7392322421073914</v>
+        <v>0.815798282623291</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.2248930931091309</v>
+        <v>0.401447057723999</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.7631266117095947</v>
+        <v>0.8517675995826721</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.4935962784069324</v>
+        <v>0.6472364904330621</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.04760277718545787</v>
+        <v>0.07801717700816505</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.3215991987802281</v>
+        <v>0.634044331325464</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
@@ -5099,17 +5099,17 @@
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>HD 209100</t>
+          <t>HD 192310</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>GJ 845 A, GJ 845</t>
+          <t>GJ 785</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>HIP 108870</t>
+          <t>HIP 99825</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
@@ -5121,149 +5121,155 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3345968334645285376</t>
+          <t>6412595290592307840</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GJ227</t>
+          <t>GJ845</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>4514</v>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="E30" t="n">
-        <v>16.26</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.69</v>
       </c>
       <c r="H30" t="n">
-        <v>2.4</v>
+        <v>2.493</v>
       </c>
       <c r="I30" t="n">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="J30" t="n">
-        <v>2.05</v>
+        <v>0.348082</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>K0V</t>
+          <t>K5V</t>
         </is>
       </c>
       <c r="L30" s="3" t="n">
-        <v>41557</v>
+        <v>37930</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>42751</v>
+        <v>42649</v>
       </c>
       <c r="N30" t="n">
-        <v>3.268993839835729</v>
+        <v>12.91991786447639</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>10 points (2/night). No signals, but high RMS 16.25m/s</t>
+          <t>Triple star system (Eps Ind) and one known planet, eps Ind A b at 16510d, 3.25Mj (Feng et al 2019, astrometry). 4514 obs over 137 nights!! Clear offset pre/post. Unbinned shows strong power at 1d, probably aliasing from the time series? Removing one supersampled night, lots of power in all the periodograms form 1-100d, RMS 8.94 - 2.62 m/s removing a linear trend. Binned periodograms show some power around ~280d in RV and act ind</t>
         </is>
       </c>
       <c r="P30" t="n">
         <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>4585</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>GJ227</t>
+          <t>GJ845</t>
         </is>
       </c>
       <c r="V30" t="n">
-        <v>3.345968334645285e+18</v>
+        <v>6.412595290592308e+18</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>3345968334645285376</t>
+          <t>6412595290592307840</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>3345968334645285376</t>
+          <t>6412595290592307840</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>3345968334645285376</t>
+          <t>6412595290592307840</t>
         </is>
       </c>
       <c r="Z30" t="n">
-        <v>91.66810166362778</v>
+        <v>330.8724078795965</v>
       </c>
       <c r="AA30" t="n">
-        <v>15.5416453082647</v>
+        <v>-56.79725466122902</v>
       </c>
       <c r="AB30" t="n">
-        <v>6.538569927215576</v>
+        <v>4.673483854799271</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.538569927215576</v>
+        <v>4.322904109954834</v>
       </c>
       <c r="AD30" t="n">
-        <v>6.942165374755859</v>
+        <v>4.907976627349854</v>
       </c>
       <c r="AE30" t="n">
-        <v>5.958354473114014</v>
+        <v>3.610557079315186</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.9838109016418457</v>
+        <v>1.297419548034668</v>
       </c>
       <c r="AG30" t="n">
-        <v>63.40654504107503</v>
+        <v>274.8431415216296</v>
       </c>
       <c r="AH30" t="n">
-        <v>5187.56640625</v>
+        <v>4560.30322265625</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.8214001655578613</v>
+        <v>0.7392322421073914</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.4724082052707672</v>
+        <v>0.2248930931091309</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.8509048223495483</v>
+        <v>0.7631266117095947</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.6944404918701557</v>
+        <v>0.4935962784069324</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.1279292538979438</v>
+        <v>0.04760277718545787</v>
       </c>
       <c r="AN30" t="n">
-        <v>1.080616590468944</v>
+        <v>0.3215991987802281</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>HD  41593</t>
+          <t>HD 209100</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>GJ 227</t>
+          <t>GJ 845 A, GJ 845</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>HIP 28954</t>
+          <t>HIP 108870</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
@@ -5275,130 +5281,130 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2552925644460225152</t>
+          <t>3345968334645285376</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GJ333</t>
+          <t>GJ227</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>1.76</v>
+        <v>16.26</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
-      <c r="G31" t="n">
-        <v>12.23</v>
+      <c r="H31" t="n">
+        <v>2.4</v>
       </c>
       <c r="I31" t="n">
-        <v>0.79</v>
+        <v>0.23</v>
       </c>
       <c r="J31" t="n">
-        <v>2.72</v>
+        <v>2.05</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>K0V</t>
         </is>
       </c>
       <c r="L31" s="3" t="n">
-        <v>37921</v>
+        <v>41557</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>42399</v>
+        <v>42751</v>
       </c>
       <c r="N31" t="n">
-        <v>12.26009582477755</v>
+        <v>3.268993839835729</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Unbinned shows lots of RV and activity peaks at 10-100d, binned no peaks</t>
+          <t>10 points (2/night). No signals, but high RMS 16.25m/s</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>GJ333</t>
+          <t>GJ227</t>
         </is>
       </c>
       <c r="V31" t="n">
-        <v>2.552925644460225e+18</v>
+        <v>3.345968334645285e+18</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>2552925644460225152</t>
+          <t>3345968334645285376</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>2552925644460225152</t>
+          <t>3345968334645285376</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2552925644460225152</t>
+          <t>3345968334645285376</t>
         </is>
       </c>
       <c r="Z31" t="n">
-        <v>12.09910707515499</v>
+        <v>91.66810166362778</v>
       </c>
       <c r="AA31" t="n">
-        <v>5.27553944692346</v>
+        <v>15.5416453082647</v>
       </c>
       <c r="AB31" t="n">
-        <v>5.708550517215729</v>
+        <v>6.538569927215576</v>
       </c>
       <c r="AC31" t="n">
-        <v>5.467689037322998</v>
+        <v>6.538569927215576</v>
       </c>
       <c r="AD31" t="n">
-        <v>5.938368320465088</v>
+        <v>6.942165374755859</v>
       </c>
       <c r="AE31" t="n">
-        <v>4.828773975372314</v>
+        <v>5.958354473114014</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.109594345092773</v>
+        <v>0.9838109016418457</v>
       </c>
       <c r="AG31" t="n">
-        <v>134.4948476893115</v>
+        <v>63.40654504107503</v>
       </c>
       <c r="AH31" t="n">
-        <v>4859.28955078125</v>
+        <v>5187.56640625</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.7615059018135071</v>
+        <v>0.8214001655578613</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.3003031015396118</v>
+        <v>0.4724082052707672</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.7731918096542358</v>
+        <v>0.8509048223495483</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.5630454294608969</v>
+        <v>0.6944404918701557</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.07783926333739442</v>
+        <v>0.1279292538979438</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.5700507953125973</v>
+        <v>1.080616590468944</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
@@ -5407,17 +5413,17 @@
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>HD   4628</t>
+          <t>HD  41593</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>GJ 33</t>
+          <t>GJ 227</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>HIP 3765</t>
+          <t>HIP 28954</t>
         </is>
       </c>
       <c r="AS31" t="inlineStr">
@@ -5429,133 +5435,130 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5856411869205581568</t>
+          <t>2552925644460225152</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GJ472</t>
+          <t>GJ333</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>864</v>
+        <v>183</v>
       </c>
       <c r="D32" t="n">
-        <v>440</v>
+        <v>42</v>
       </c>
       <c r="E32" t="n">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.26</v>
+        <v>12.23</v>
       </c>
       <c r="I32" t="n">
-        <v>0.24</v>
+        <v>0.79</v>
       </c>
       <c r="J32" t="n">
-        <v>1.89</v>
+        <v>2.72</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>K1V</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="L32" s="3" t="n">
-        <v>38028</v>
+        <v>37921</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>43223</v>
+        <v>42399</v>
       </c>
       <c r="N32" t="n">
-        <v>14.22313483915127</v>
+        <v>12.26009582477755</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>RV peaks at 20d, 30d. Strong act ind peaks at 100-400d</t>
+          <t>Unbinned shows lots of RV and activity peaks at 10-100d, binned no peaks</t>
         </is>
       </c>
       <c r="P32" t="n">
         <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>GJ472</t>
+          <t>GJ333</t>
         </is>
       </c>
       <c r="V32" t="n">
-        <v>5.856411869205582e+18</v>
+        <v>2.552925644460225e+18</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>5856411869205581568</t>
+          <t>2552925644460225152</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>5856411869205581568</t>
+          <t>2552925644460225152</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>5856411869205581568</t>
+          <t>2552925644460225152</t>
         </is>
       </c>
       <c r="Z32" t="n">
-        <v>188.3740627007537</v>
+        <v>12.09910707515499</v>
       </c>
       <c r="AA32" t="n">
-        <v>-68.75719762527582</v>
+        <v>5.27553944692346</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.109029698600769</v>
+        <v>5.708550517215729</v>
       </c>
       <c r="AC32" t="n">
-        <v>6.904045104980469</v>
+        <v>5.467689037322998</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.337036609649658</v>
+        <v>5.938368320465088</v>
       </c>
       <c r="AE32" t="n">
-        <v>6.300198078155518</v>
+        <v>4.828773975372314</v>
       </c>
       <c r="AF32" t="n">
-        <v>1.036838531494141</v>
+        <v>1.109594345092773</v>
       </c>
       <c r="AG32" t="n">
-        <v>61.77374693161543</v>
+        <v>134.4948476893115</v>
       </c>
       <c r="AH32" t="n">
-        <v>5004.880859375</v>
+        <v>4859.28955078125</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.7848258018493652</v>
+        <v>0.7615059018135071</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.36659836769104</v>
+        <v>0.3003031015396118</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.8053073883056641</v>
+        <v>0.7731918096542358</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.6176755823767829</v>
+        <v>0.5630454294608969</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.1493260312313828</v>
+        <v>0.07783926333739442</v>
       </c>
       <c r="AN32" t="n">
-        <v>1.162811549134983</v>
+        <v>0.5700507953125973</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
@@ -5564,17 +5567,17 @@
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>HD 109200</t>
+          <t>HD   4628</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>GJ 472</t>
+          <t>GJ 33</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>HIP 61291</t>
+          <t>HIP 3765</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
@@ -5586,133 +5589,133 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3023711269067191296</t>
+          <t>5856411869205581568</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GJ1085</t>
+          <t>GJ472</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>224</v>
+        <v>864</v>
       </c>
       <c r="D33" t="n">
-        <v>103</v>
+        <v>440</v>
       </c>
       <c r="E33" t="n">
-        <v>2.53</v>
+        <v>1.93</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>5.97</v>
+        <v>7.14</v>
       </c>
       <c r="H33" t="n">
-        <v>1.377</v>
+        <v>0.26</v>
       </c>
       <c r="I33" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="J33" t="n">
-        <v>1.69</v>
+        <v>1.89</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>G2V</t>
+          <t>K1V</t>
         </is>
       </c>
       <c r="L33" s="3" t="n">
-        <v>37923</v>
+        <v>38028</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>42999</v>
+        <v>43223</v>
       </c>
       <c r="N33" t="n">
-        <v>13.89733059548255</v>
+        <v>14.22313483915127</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Strong signal at ~350d in RVs and all activity indicators!</t>
+          <t>RV peaks at 20d, 30d. Strong act ind peaks at 100-400d</t>
         </is>
       </c>
       <c r="P33" t="n">
         <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>GJ1085</t>
+          <t>GJ472</t>
         </is>
       </c>
       <c r="V33" t="n">
-        <v>3.023711269067191e+18</v>
+        <v>5.856411869205582e+18</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>3023711269067191296</t>
+          <t>5856411869205581568</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>3023711269067191296</t>
+          <t>5856411869205581568</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>3023711269067191296</t>
+          <t>5856411869205581568</t>
         </is>
       </c>
       <c r="Z33" t="n">
-        <v>87.1458581131804</v>
+        <v>188.3740627007537</v>
       </c>
       <c r="AA33" t="n">
-        <v>-4.095664047742017</v>
+        <v>-68.75719762527582</v>
       </c>
       <c r="AB33" t="n">
-        <v>5.805881023406982</v>
+        <v>7.109029698600769</v>
       </c>
       <c r="AC33" t="n">
-        <v>5.805881023406982</v>
+        <v>6.904045104980469</v>
       </c>
       <c r="AD33" t="n">
-        <v>6.129700660705566</v>
+        <v>7.337036609649658</v>
       </c>
       <c r="AE33" t="n">
-        <v>5.313390254974365</v>
+        <v>6.300198078155518</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.8163104057312012</v>
+        <v>1.036838531494141</v>
       </c>
       <c r="AG33" t="n">
-        <v>65.74459508507027</v>
+        <v>61.77374693161543</v>
       </c>
       <c r="AH33" t="n">
-        <v>5647.2470703125</v>
+        <v>5004.880859375</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.9664596915245056</v>
+        <v>0.7848258018493652</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.8291489481925964</v>
+        <v>0.36659836769104</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.9512629508972168</v>
+        <v>0.8053073883056641</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.895518914032519</v>
+        <v>0.6176755823767829</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.1141911591371269</v>
+        <v>0.1493260312313828</v>
       </c>
       <c r="AN33" t="n">
-        <v>1.188142503652605</v>
+        <v>1.162811549134983</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
@@ -5721,17 +5724,17 @@
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>HD  38858</t>
+          <t>HD 109200</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>GJ 1085</t>
+          <t>GJ 472</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>HIP 27435</t>
+          <t>HIP 61291</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
@@ -5743,147 +5746,152 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4423865487962417024</t>
+          <t>3023711269067191296</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GJ9527</t>
+          <t>GJ1085</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="D34" t="n">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="E34" t="n">
-        <v>5.37</v>
+        <v>2.53</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>5.97</v>
       </c>
       <c r="H34" t="n">
-        <v>4.1</v>
+        <v>1.377</v>
       </c>
       <c r="I34" t="n">
         <v>0.18</v>
       </c>
       <c r="J34" t="n">
-        <v>1.9</v>
+        <v>1.69</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>G2.5V</t>
+          <t>G2V</t>
         </is>
       </c>
       <c r="L34" s="3" t="n">
-        <v>38483</v>
+        <v>37923</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>42789</v>
+        <v>42999</v>
       </c>
       <c r="N34" t="n">
-        <v>11.78918548939083</v>
+        <v>13.89733059548255</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>No data on exoplanets archive. Observations are multi-point series for each night, should probably average over the night? Taking nightly medians, still a lot of peaks in the 50-200d range in RVs and most activity indicators</t>
+          <t>Strong signal at ~350d in RVs and all activity indicators!</t>
         </is>
       </c>
       <c r="P34" t="n">
         <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S34" t="n">
         <v>1</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>GJ9527</t>
+          <t>GJ1085</t>
         </is>
       </c>
       <c r="V34" t="n">
-        <v>4.423865487962417e+18</v>
+        <v>3.023711269067191e+18</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>4423865487962417024</t>
+          <t>3023711269067191296</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>4423865487962417024</t>
+          <t>3023711269067191296</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>4423865487962417024</t>
+          <t>3023711269067191296</t>
         </is>
       </c>
       <c r="Z34" t="n">
-        <v>236.0073885996745</v>
+        <v>87.1458581131804</v>
       </c>
       <c r="AA34" t="n">
-        <v>2.514558619403979</v>
+        <v>-4.095664047742017</v>
       </c>
       <c r="AB34" t="n">
-        <v>5.700447559356689</v>
+        <v>5.805881023406982</v>
       </c>
       <c r="AC34" t="n">
-        <v>5.700447559356689</v>
+        <v>5.805881023406982</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.040486812591553</v>
+        <v>6.129700660705566</v>
       </c>
       <c r="AE34" t="n">
-        <v>5.187979221343994</v>
+        <v>5.313390254974365</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.8525075912475586</v>
+        <v>0.8163104057312012</v>
       </c>
       <c r="AG34" t="n">
-        <v>67.60073784021641</v>
+        <v>65.74459508507027</v>
       </c>
       <c r="AH34" t="n">
-        <v>5579.611328125</v>
+        <v>5647.2470703125</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.9173334240913391</v>
+        <v>0.9664596915245056</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.8502410650253296</v>
+        <v>0.8291489481925964</v>
       </c>
       <c r="AK34" t="n">
-        <v>0.9868084788322449</v>
+        <v>0.9512629508972168</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.9106175844249375</v>
+        <v>0.895518914032519</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.1056122777504383</v>
+        <v>0.1141911591371269</v>
       </c>
       <c r="AN34" t="n">
-        <v>1.07957494485212</v>
+        <v>1.188142503652605</v>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>HD 140538A, HD 140538</t>
+          <t>HD  38858</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>GJ 9527 A, GJ 9527, GJ 596.1</t>
+          <t>GJ 1085</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>HIP 77052</t>
+          <t>HIP 27435</t>
         </is>
       </c>
       <c r="AS34" t="inlineStr">
@@ -5895,296 +5903,285 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3865002247461685248</t>
+          <t>4423865487962417024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GJ3633</t>
+          <t>GJ9527</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E35" t="n">
-        <v>6.65</v>
+        <v>5.37</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.379</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="J35" t="n">
-        <v>1.322642</v>
+        <v>1.9</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>K0V</t>
+          <t>G2.5V</t>
         </is>
       </c>
       <c r="L35" s="3" t="n">
-        <v>38340</v>
+        <v>38483</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>38482</v>
+        <v>42789</v>
       </c>
       <c r="N35" t="n">
-        <v>0.3887748117727584</v>
+        <v>11.78918548939083</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Only 6 obs. Maybe a linear trend? hard to say, but would still have high scatter, RMS 6.65 m/s</t>
+          <t>No data on exoplanets archive. Observations are multi-point series for each night, should probably average over the night? Taking nightly medians, still a lot of peaks in the 50-200d range in RVs and most activity indicators</t>
         </is>
       </c>
       <c r="P35" t="n">
         <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>5020</v>
+        <v>1</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>GJ3633</t>
+          <t>GJ9527</t>
         </is>
       </c>
       <c r="V35" t="n">
-        <v>3.865002247461685e+18</v>
+        <v>4.423865487962417e+18</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>3865002247461685248</t>
+          <t>4423865487962417024</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>3865002247461685248</t>
+          <t>4423865487962417024</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>3865002247461685248</t>
+          <t>4423865487962417024</t>
         </is>
       </c>
       <c r="Z35" t="n">
-        <v>164.1271787062287</v>
+        <v>236.0073885996745</v>
       </c>
       <c r="AA35" t="n">
-        <v>7.388130256091411</v>
+        <v>2.514558619403979</v>
       </c>
       <c r="AB35" t="n">
-        <v>7.348921079573631</v>
+        <v>5.700447559356689</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.11333179473877</v>
+        <v>5.700447559356689</v>
       </c>
       <c r="AD35" t="n">
-        <v>7.578375339508057</v>
+        <v>6.040486812591553</v>
       </c>
       <c r="AE35" t="n">
-        <v>6.483386993408203</v>
+        <v>5.187979221343994</v>
       </c>
       <c r="AF35" t="n">
-        <v>1.094988346099854</v>
+        <v>0.8525075912475586</v>
       </c>
       <c r="AG35" t="n">
-        <v>57.80241410525711</v>
+        <v>67.60073784021641</v>
       </c>
       <c r="AH35" t="n">
-        <v>4910.1162109375</v>
+        <v>5579.611328125</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.7915802597999573</v>
+        <v>0.9173334240913391</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.3497446179389954</v>
+        <v>0.8502410650253296</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.8172106742858887</v>
+        <v>0.9868084788322449</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.6061540054243068</v>
+        <v>0.9106175844249375</v>
       </c>
       <c r="AM35" t="n">
-        <v>0.16593362697859</v>
+        <v>0.1056122777504383</v>
       </c>
       <c r="AN35" t="n">
-        <v>1.285524705034916</v>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+        <v>1.07957494485212</v>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>HD  94765</t>
+          <t>HD 140538A, HD 140538</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>GJ 3633</t>
+          <t>GJ 9527 A, GJ 9527, GJ 596.1</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>HIP 53486</t>
+          <t>HIP 77052</t>
         </is>
       </c>
       <c r="AS35" t="inlineStr">
         <is>
-          <t>BYDraV*</t>
+          <t>HighPM*</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6260386975385254656</t>
+          <t>4805806449875760384</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HD139763</t>
+          <t>HD274255</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>7.5</v>
+        <v>5.73</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="H36" t="n">
-        <v>3.21</v>
+        <v>9.706</v>
       </c>
       <c r="I36" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="J36" t="n">
-        <v>2.207854</v>
+        <v>3.072099</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>K6Vk</t>
+          <t>M0V</t>
         </is>
       </c>
       <c r="L36" s="3" t="n">
-        <v>38816</v>
+        <v>37998</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>42086</v>
+        <v>42042</v>
       </c>
       <c r="N36" t="n">
-        <v>8.952772073921972</v>
+        <v>11.07186858316222</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>8 obs over 9 years, high scatter RMS 7.5m/s</t>
+          <t>Only 6 obs, over 11 years. RMS = 5.73 m/s, but looks like linear trend. Removing the linear, RMS 1.5. M dwarf according to Simbad!</t>
         </is>
       </c>
       <c r="P36" t="n">
         <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>4126</v>
+        <v>4036</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>HD139763</t>
+          <t>HD274255</t>
         </is>
       </c>
       <c r="V36" t="n">
-        <v>6.260386975385255e+18</v>
+        <v>4.80580644987576e+18</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>6260386975385254656</t>
+          <t>4805806449875760384</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>6260386975385254656</t>
+          <t>4805806449875760384</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>6260386975385254656</t>
+          <t>4805806449875760384</t>
         </is>
       </c>
       <c r="Z36" t="n">
-        <v>235.1447950075073</v>
+        <v>82.55855476960322</v>
       </c>
       <c r="AA36" t="n">
-        <v>-18.04862887919031</v>
+        <v>-42.69796597525414</v>
       </c>
       <c r="AB36" t="n">
-        <v>8.889188472819328</v>
+        <v>9.68979214331627</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.362634658813477</v>
+        <v>9.101789474487305</v>
       </c>
       <c r="AD36" t="n">
-        <v>9.131756782531738</v>
+        <v>9.934929847717285</v>
       </c>
       <c r="AE36" t="n">
-        <v>7.509888172149658</v>
+        <v>8.209831237792969</v>
       </c>
       <c r="AF36" t="n">
-        <v>1.62186861038208</v>
+        <v>1.725098609924316</v>
       </c>
       <c r="AG36" t="n">
-        <v>64.18253335778927</v>
+        <v>52.19632472037114</v>
       </c>
       <c r="AH36" t="n">
-        <v>4101.45458984375</v>
+        <v>4000.154541015625</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.6586083769798279</v>
+        <v>0.6311180591583252</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0.1235216408967972</v>
+        <v>0.09948211908340454</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.6961553692817688</v>
+        <v>0.6567114591598511</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.3713759475176701</v>
+        <v>0.3341422728230879</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.307015952046481</v>
+        <v>0.4185498719122809</v>
       </c>
       <c r="AN36" t="n">
-        <v>1.698201142789018</v>
+        <v>2.1496930068802</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
@@ -6193,153 +6190,153 @@
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>HD 139763</t>
+          <t>HD 274255</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>HIP 76779</t>
+          <t>HIP 25775</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>BYDraV*_Candidate</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6721432232656218752</t>
+          <t>3865002247461685248</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GJ707</t>
+          <t>GJ3633</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>8.26</v>
+        <v>6.65</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>8.372</v>
+        <v>7.379</v>
       </c>
       <c r="H37" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.705884</v>
+        <v>1.322642</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>M0V</t>
+          <t>K0V</t>
         </is>
       </c>
       <c r="L37" s="3" t="n">
-        <v>38448</v>
+        <v>38340</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>42947</v>
+        <v>38482</v>
       </c>
       <c r="N37" t="n">
-        <v>12.31759069130732</v>
+        <v>0.3887748117727584</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t xml:space="preserve">No signals, but relatively high RMS </t>
+          <t>Only 6 obs. Maybe a linear trend? hard to say, but would still have high scatter, RMS 6.65 m/s</t>
         </is>
       </c>
       <c r="P37" t="n">
         <v>5</v>
       </c>
       <c r="Q37" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4191</v>
+        <v>5020</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>GJ707</t>
+          <t>GJ3633</t>
         </is>
       </c>
       <c r="V37" t="n">
-        <v>6.721432232656219e+18</v>
+        <v>3.865002247461685e+18</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>6721432232656218752</t>
+          <t>3865002247461685248</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>6721432232656218752</t>
+          <t>3865002247461685248</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>6721432232656218752</t>
+          <t>3865002247461685248</t>
         </is>
       </c>
       <c r="Z37" t="n">
-        <v>273.0899537734526</v>
+        <v>164.1271787062287</v>
       </c>
       <c r="AA37" t="n">
-        <v>-43.44670335929374</v>
+        <v>7.388130256091411</v>
       </c>
       <c r="AB37" t="n">
-        <v>8.344812724895478</v>
+        <v>7.348921079573631</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.846924781799316</v>
+        <v>7.11333179473877</v>
       </c>
       <c r="AD37" t="n">
-        <v>8.58617115020752</v>
+        <v>7.578375339508057</v>
       </c>
       <c r="AE37" t="n">
-        <v>7.012911796569824</v>
+        <v>6.483386993408203</v>
       </c>
       <c r="AF37" t="n">
-        <v>1.573259353637695</v>
+        <v>1.094988346099854</v>
       </c>
       <c r="AG37" t="n">
-        <v>75.7122251862617</v>
+        <v>57.80241410525711</v>
       </c>
       <c r="AH37" t="n">
-        <v>4235.400390625</v>
+        <v>4910.1162109375</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.6654590368270874</v>
+        <v>0.7915802597999573</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0.1331762373447418</v>
+        <v>0.3497446179389954</v>
       </c>
       <c r="AK37" t="n">
-        <v>0.6776435971260071</v>
+        <v>0.8172106742858887</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.3841491589305062</v>
+        <v>0.6061540054243068</v>
       </c>
       <c r="AM37" t="n">
-        <v>0.2518885207499373</v>
+        <v>0.16593362697859</v>
       </c>
       <c r="AN37" t="n">
-        <v>1.424381660372286</v>
+        <v>1.285524705034916</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
@@ -6348,310 +6345,313 @@
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>HD 166348</t>
+          <t>HD  94765</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>GJ 707</t>
+          <t>GJ 3633</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>HIP 89211</t>
+          <t>HIP 53486</t>
         </is>
       </c>
       <c r="AS37" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>BYDraV*</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2980492387558410112</t>
+          <t>6260386975385254656</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GJ177</t>
+          <t>HD139763</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>13.75</v>
+        <v>7.5</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.5</v>
+        <v>8.91</v>
       </c>
       <c r="H38" t="n">
         <v>3.21</v>
       </c>
       <c r="I38" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="J38" t="n">
-        <v>1.82</v>
+        <v>2.207854</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>G2.5IV-V</t>
+          <t>K6Vk</t>
         </is>
       </c>
       <c r="L38" s="3" t="n">
-        <v>40828</v>
+        <v>38816</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>43031</v>
+        <v>42086</v>
       </c>
       <c r="N38" t="n">
-        <v>6.031485284052019</v>
+        <v>8.952772073921972</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Forest of peaks in 10-100d range in all periodograms (G pdf), less when night-binned but still some (GK pdf)</t>
+          <t>8 obs over 9 years, high scatter RMS 7.5m/s</t>
         </is>
       </c>
       <c r="P38" t="n">
         <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>4126</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>GJ177</t>
+          <t>HD139763</t>
         </is>
       </c>
       <c r="V38" t="n">
-        <v>2.98049238755841e+18</v>
+        <v>6.260386975385255e+18</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>2980492387558410112</t>
+          <t>6260386975385254656</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>2980492387558410112</t>
+          <t>6260386975385254656</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>6260386975385254656</t>
         </is>
       </c>
       <c r="Z38" t="n">
-        <v>71.90180173768945</v>
+        <v>235.1447950075073</v>
       </c>
       <c r="AA38" t="n">
-        <v>-16.93372662438821</v>
+        <v>-18.04862887919031</v>
       </c>
       <c r="AB38" t="n">
-        <v>5.293016910552979</v>
+        <v>8.889188472819328</v>
       </c>
       <c r="AC38" t="n">
-        <v>5.293016910552979</v>
+        <v>8.362634658813477</v>
       </c>
       <c r="AD38" t="n">
-        <v>5.658400058746338</v>
+        <v>9.131756782531738</v>
       </c>
       <c r="AE38" t="n">
-        <v>4.85314416885376</v>
+        <v>7.509888172149658</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.8052558898925781</v>
+        <v>1.62186861038208</v>
       </c>
       <c r="AG38" t="n">
-        <v>75.521331783864</v>
+        <v>64.18253335778927</v>
       </c>
       <c r="AH38" t="n">
-        <v>5867</v>
+        <v>4101.45458984375</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.9656808972358704</v>
+        <v>0.6586083769798279</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.9657677412033081</v>
+        <v>0.1235216408967972</v>
       </c>
       <c r="AK38" t="n">
-        <v>1.008117437362671</v>
+        <v>0.6961553692817688</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.9532439609050276</v>
+        <v>0.3713759475176701</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.09863263017312196</v>
+        <v>0.307015952046481</v>
       </c>
       <c r="AN38" t="n">
-        <v>1.058391091029775</v>
+        <v>1.698201142789018</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>HD  30495</t>
-        </is>
-      </c>
-      <c r="AQ38" t="inlineStr">
-        <is>
-          <t>GJ 177</t>
+          <t>HD 139763</t>
         </is>
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>HIP 22263</t>
+          <t>HIP 76779</t>
         </is>
       </c>
       <c r="AS38" t="inlineStr">
         <is>
-          <t>BYDraV*</t>
+          <t>HighPM*</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6604147121141267712</t>
+          <t>6721432232656218752</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GJ879</t>
+          <t>GJ707</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="D39" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E39" t="n">
-        <v>13.87</v>
+        <v>8.26</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>6.48</v>
+        <v>8.372</v>
       </c>
       <c r="H39" t="n">
-        <v>2.71</v>
+        <v>4.8</v>
       </c>
       <c r="I39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7996529999999999</v>
+        <v>1.705884</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>K4Ve</t>
+          <t>M0V</t>
         </is>
       </c>
       <c r="L39" s="3" t="n">
-        <v>38257</v>
+        <v>38448</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>38606</v>
+        <v>42947</v>
       </c>
       <c r="N39" t="n">
-        <v>0.9555099247091033</v>
+        <v>12.31759069130732</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Most of the 217 obs are on one night! But binning those, RMS is still high</t>
+          <t xml:space="preserve">No signals, but relatively high RMS </t>
         </is>
       </c>
       <c r="P39" t="n">
         <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>4608</v>
+        <v>4191</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>GJ879</t>
+          <t>GJ707</t>
         </is>
       </c>
       <c r="V39" t="n">
-        <v>6.604147121141267e+18</v>
+        <v>6.721432232656219e+18</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>6604147121141267712</t>
+          <t>6721432232656218752</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>6604147121141267712</t>
+          <t>6721432232656218752</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>6604147121141267712</t>
+          <t>6721432232656218752</t>
         </is>
       </c>
       <c r="Z39" t="n">
-        <v>344.1019414017392</v>
+        <v>273.0899537734526</v>
       </c>
       <c r="AA39" t="n">
-        <v>-31.56626896213439</v>
+        <v>-43.44670335929374</v>
       </c>
       <c r="AB39" t="n">
-        <v>6.451090375370979</v>
+        <v>8.344812724895478</v>
       </c>
       <c r="AC39" t="n">
-        <v>6.091864585876465</v>
+        <v>7.846924781799316</v>
       </c>
       <c r="AD39" t="n">
-        <v>6.68665075302124</v>
+        <v>8.58617115020752</v>
       </c>
       <c r="AE39" t="n">
-        <v>5.346338272094727</v>
+        <v>7.012911796569824</v>
       </c>
       <c r="AF39" t="n">
-        <v>1.340312480926514</v>
+        <v>1.573259353637695</v>
       </c>
       <c r="AG39" t="n">
-        <v>131.5525092499576</v>
+        <v>75.7122251862617</v>
       </c>
       <c r="AH39" t="n">
-        <v>4463.10888671875</v>
+        <v>4235.400390625</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.7254488468170166</v>
+        <v>0.6654590368270874</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.1989193558692932</v>
+        <v>0.1331762373447418</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.7459800243377686</v>
+        <v>0.6776435971260071</v>
       </c>
       <c r="AL39" t="n">
-        <v>0.4659316765008095</v>
+        <v>0.3841491589305062</v>
       </c>
       <c r="AM39" t="n">
-        <v>0.1082195830370057</v>
+        <v>0.2518885207499373</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.7036829036778532</v>
+        <v>1.424381660372286</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
@@ -6660,315 +6660,310 @@
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>HD 216803</t>
+          <t>HD 166348</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>GJ 879</t>
+          <t>GJ 707</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>HIP 113283</t>
+          <t>HIP 89211</t>
         </is>
       </c>
       <c r="AS39" t="inlineStr">
         <is>
-          <t>BYDraV*</t>
+          <t>HighPM*</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4381250547575102208</t>
+          <t>2980492387558410112</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GJ641</t>
+          <t>GJ177</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="D40" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E40" t="n">
-        <v>15.75</v>
+        <v>13.75</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>6.64</v>
+        <v>5.5</v>
       </c>
       <c r="H40" t="n">
-        <v>2.5</v>
+        <v>3.21</v>
       </c>
       <c r="I40" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="J40" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>G8.5Vk:</t>
+          <t>G2.5IV-V</t>
         </is>
       </c>
       <c r="L40" s="3" t="n">
-        <v>38028</v>
+        <v>40828</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>39703</v>
+        <v>43031</v>
       </c>
       <c r="N40" t="n">
-        <v>4.58590006844627</v>
+        <v>6.031485284052019</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Strong RV peak at ~15d, also peaks in activity indicators matching this and others. Night-medianned: High scatter, peaks around 100d in act ind and RVs</t>
+          <t>Forest of peaks in 10-100d range in all periodograms (G pdf), less when night-binned but still some (GK pdf)</t>
         </is>
       </c>
       <c r="P40" t="n">
         <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>GJ641</t>
+          <t>GJ177</t>
         </is>
       </c>
       <c r="V40" t="n">
-        <v>4.381250547575102e+18</v>
+        <v>2.98049238755841e+18</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>4381250547575102208</t>
+          <t>2980492387558410112</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>4381250547575102208</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>4381250547575102208</t>
+          <t>2980492387558410112</t>
         </is>
       </c>
       <c r="Z40" t="n">
-        <v>253.2418467851804</v>
+        <v>71.90180173768945</v>
       </c>
       <c r="AA40" t="n">
-        <v>-0.03301653670675737</v>
+        <v>-16.93372662438821</v>
       </c>
       <c r="AB40" t="n">
-        <v>6.440524578094482</v>
+        <v>5.293016910552979</v>
       </c>
       <c r="AC40" t="n">
-        <v>6.440524578094482</v>
+        <v>5.293016910552979</v>
       </c>
       <c r="AD40" t="n">
-        <v>6.814839363098145</v>
+        <v>5.658400058746338</v>
       </c>
       <c r="AE40" t="n">
-        <v>5.892110347747803</v>
+        <v>4.85314416885376</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.9227290153503418</v>
+        <v>0.8052558898925781</v>
       </c>
       <c r="AG40" t="n">
-        <v>59.48050294387718</v>
+        <v>75.521331783864</v>
       </c>
       <c r="AH40" t="n">
-        <v>5468.59716796875</v>
+        <v>5867</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.9512451887130737</v>
+        <v>0.9656808972358704</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.5625982880592346</v>
+        <v>0.9657677412033081</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.8356360793113708</v>
+        <v>1.008117437362671</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.7457219727458343</v>
+        <v>0.9532439609050276</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.1411519399373385</v>
+        <v>0.09863263017312196</v>
       </c>
       <c r="AN40" t="n">
-        <v>1.329622832171541</v>
+        <v>1.058391091029775</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>HD 152391</t>
+          <t>HD  30495</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>GJ 641</t>
+          <t>GJ 177</t>
         </is>
       </c>
       <c r="AR40" t="inlineStr">
         <is>
-          <t>HIP 82588</t>
+          <t>HIP 22263</t>
         </is>
       </c>
       <c r="AS40" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>BYDraV*</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2395031273585836288</t>
+          <t>6604147121141267712</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HD221503</t>
+          <t>GJ879</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="D41" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E41" t="n">
-        <v>15.85</v>
+        <v>13.87</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>8.606999999999999</v>
+        <v>6.48</v>
       </c>
       <c r="H41" t="n">
-        <v>5.9</v>
+        <v>2.71</v>
       </c>
       <c r="I41" t="n">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>1.914745</v>
+        <v>0.7996529999999999</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>K6V</t>
+          <t>K4Ve</t>
         </is>
       </c>
       <c r="L41" s="3" t="n">
-        <v>38293</v>
+        <v>38257</v>
       </c>
       <c r="M41" s="3" t="n">
-        <v>41575</v>
+        <v>38606</v>
       </c>
       <c r="N41" t="n">
-        <v>8.985626283367557</v>
+        <v>0.9555099247091033</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Nothing at all in periodograms, yet scatter high RMS 15.84m/s</t>
+          <t>Most of the 217 obs are on one night! But binning those, RMS is still high</t>
         </is>
       </c>
       <c r="P41" t="n">
         <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>4205</v>
+        <v>4608</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>HD221503</t>
+          <t>GJ879</t>
         </is>
       </c>
       <c r="V41" t="n">
-        <v>2.395031273585836e+18</v>
+        <v>6.604147121141267e+18</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>2395031273585836288</t>
+          <t>6604147121141267712</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>2395031273585836288</t>
+          <t>6604147121141267712</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2395031273585836288</t>
+          <t>6604147121141267712</t>
         </is>
       </c>
       <c r="Z41" t="n">
-        <v>353.2074101827482</v>
+        <v>344.1019414017392</v>
       </c>
       <c r="AA41" t="n">
-        <v>-16.84661852217994</v>
+        <v>-31.56626896213439</v>
       </c>
       <c r="AB41" t="n">
-        <v>8.587043935575485</v>
+        <v>6.451090375370979</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.085914611816406</v>
+        <v>6.091864585876465</v>
       </c>
       <c r="AD41" t="n">
-        <v>8.828512191772461</v>
+        <v>6.68665075302124</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.250840187072754</v>
+        <v>5.346338272094727</v>
       </c>
       <c r="AF41" t="n">
-        <v>1.577672004699707</v>
+        <v>1.340312480926514</v>
       </c>
       <c r="AG41" t="n">
-        <v>68.73564590379422</v>
+        <v>131.5525092499576</v>
       </c>
       <c r="AH41" t="n">
-        <v>4036.313720703125</v>
+        <v>4463.10888671875</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.6749641895294189</v>
+        <v>0.7254488468170166</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.1357319355010986</v>
+        <v>0.1989193558692932</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.7526888847351074</v>
+        <v>0.7459800243377686</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.3899548952986137</v>
+        <v>0.4659316765008095</v>
       </c>
       <c r="AM41" t="n">
-        <v>0.2577820708534371</v>
+        <v>0.1082195830370057</v>
       </c>
       <c r="AN41" t="n">
-        <v>1.479134565455183</v>
+        <v>0.7036829036778532</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
@@ -6977,155 +6972,155 @@
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>HD 221503</t>
+          <t>HD 216803</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>GJ 898</t>
+          <t>GJ 879</t>
         </is>
       </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>HIP 116215</t>
+          <t>HIP 113283</t>
         </is>
       </c>
       <c r="AS41" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>BYDraV*</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5479222240596469632</t>
+          <t>4381250547575102208</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GJ260</t>
+          <t>GJ641</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="D42" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E42" t="n">
-        <v>19.66</v>
+        <v>15.75</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>6.803</v>
+        <v>6.64</v>
       </c>
       <c r="H42" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="I42" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="J42" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>G9V</t>
+          <t>G8.5Vk:</t>
         </is>
       </c>
       <c r="L42" s="3" t="n">
-        <v>41687</v>
+        <v>38028</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>42751</v>
+        <v>39703</v>
       </c>
       <c r="N42" t="n">
-        <v>2.913073237508556</v>
+        <v>4.58590006844627</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>25 points on 12 nights, no signals in periodograms but high RMS 19.38m/s</t>
+          <t>Strong RV peak at ~15d, also peaks in activity indicators matching this and others. Night-medianned: High scatter, peaks around 100d in act ind and RVs</t>
         </is>
       </c>
       <c r="P42" t="n">
         <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>GJ260</t>
+          <t>GJ641</t>
         </is>
       </c>
       <c r="V42" t="n">
-        <v>5.47922224059647e+18</v>
+        <v>4.381250547575102e+18</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>5479222240596469632</t>
+          <t>4381250547575102208</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>5479222240596469632</t>
+          <t>4381250547575102208</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>5479222240596469632</t>
+          <t>4381250547575102208</t>
         </is>
       </c>
       <c r="Z42" t="n">
-        <v>104.9970628612671</v>
+        <v>253.2418467851804</v>
       </c>
       <c r="AA42" t="n">
-        <v>-61.33500424765096</v>
+        <v>-0.03301653670675737</v>
       </c>
       <c r="AB42" t="n">
-        <v>6.616180896759033</v>
+        <v>6.440524578094482</v>
       </c>
       <c r="AC42" t="n">
-        <v>6.616180896759033</v>
+        <v>6.440524578094482</v>
       </c>
       <c r="AD42" t="n">
-        <v>7.008779048919678</v>
+        <v>6.814839363098145</v>
       </c>
       <c r="AE42" t="n">
-        <v>6.05385684967041</v>
+        <v>5.892110347747803</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.9549221992492676</v>
+        <v>0.9227290153503418</v>
       </c>
       <c r="AG42" t="n">
-        <v>54.52523915853711</v>
+        <v>59.48050294387718</v>
       </c>
       <c r="AH42" t="n">
-        <v>5300.3193359375</v>
+        <v>5468.59716796875</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.8360517621040344</v>
+        <v>0.9512451887130737</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0.5749337077140808</v>
+        <v>0.5625982880592346</v>
       </c>
       <c r="AK42" t="n">
-        <v>0.8991650938987732</v>
+        <v>0.8356360793113708</v>
       </c>
       <c r="AL42" t="n">
-        <v>0.7612901202966128</v>
+        <v>0.7457219727458343</v>
       </c>
       <c r="AM42" t="n">
-        <v>0.1408483458093113</v>
+        <v>0.1411519399373385</v>
       </c>
       <c r="AN42" t="n">
-        <v>1.25675437580266</v>
+        <v>1.329622832171541</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
@@ -7134,17 +7129,17 @@
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>HD  53143</t>
+          <t>HD 152391</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>GJ 260</t>
+          <t>GJ 641</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>HIP 33690</t>
+          <t>HIP 82588</t>
         </is>
       </c>
       <c r="AS42" t="inlineStr">
@@ -7156,37 +7151,37 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4819591920506512768</t>
+          <t>2395031273585836288</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HD35650</t>
+          <t>HD221503</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D43" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E43" t="n">
-        <v>21.1</v>
+        <v>15.85</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>9.054</v>
+        <v>8.606999999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="I43" t="n">
-        <v>0.58</v>
+        <v>0.18</v>
       </c>
       <c r="J43" t="n">
-        <v>3.25</v>
+        <v>1.914745</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -7194,95 +7189,98 @@
         </is>
       </c>
       <c r="L43" s="3" t="n">
-        <v>37927</v>
+        <v>38293</v>
       </c>
       <c r="M43" s="3" t="n">
-        <v>42751</v>
+        <v>41575</v>
       </c>
       <c r="N43" t="n">
-        <v>13.20739219712526</v>
+        <v>8.985626283367557</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>No signals, but high RMS</t>
+          <t>Nothing at all in periodograms, yet scatter high RMS 15.84m/s</t>
         </is>
       </c>
       <c r="P43" t="n">
         <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>4205</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>HD35650</t>
+          <t>HD221503</t>
         </is>
       </c>
       <c r="V43" t="n">
-        <v>4.819591920506512e+18</v>
+        <v>2.395031273585836e+18</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>4819591920506512768</t>
+          <t>2395031273585836288</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>4819591920506512768</t>
+          <t>2395031273585836288</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>4819591920506512768</t>
+          <t>2395031273585836288</t>
         </is>
       </c>
       <c r="Z43" t="n">
-        <v>81.12595314463759</v>
+        <v>353.2074101827482</v>
       </c>
       <c r="AA43" t="n">
-        <v>-38.96990653268172</v>
+        <v>-16.84661852217994</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.031418509688377</v>
+        <v>8.587043935575485</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.539438247680664</v>
+        <v>8.085914611816406</v>
       </c>
       <c r="AD43" t="n">
-        <v>9.272552490234375</v>
+        <v>8.828512191772461</v>
       </c>
       <c r="AE43" t="n">
-        <v>7.708310604095459</v>
+        <v>7.250840187072754</v>
       </c>
       <c r="AF43" t="n">
-        <v>1.564241886138916</v>
+        <v>1.577672004699707</v>
       </c>
       <c r="AG43" t="n">
-        <v>57.27060617763743</v>
+        <v>68.73564590379422</v>
       </c>
       <c r="AH43" t="n">
-        <v>4265.9111328125</v>
+        <v>4036.313720703125</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.6704689860343933</v>
+        <v>0.6749641895294189</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0.1217036172747612</v>
+        <v>0.1357319355010986</v>
       </c>
       <c r="AK43" t="n">
-        <v>0.6386978030204773</v>
+        <v>0.7526888847351074</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.3668865049789747</v>
+        <v>0.3899548952986137</v>
       </c>
       <c r="AM43" t="n">
-        <v>0.3485261884186165</v>
+        <v>0.2577820708534371</v>
       </c>
       <c r="AN43" t="n">
-        <v>1.933296688273392</v>
+        <v>1.479134565455183</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
@@ -7291,150 +7289,155 @@
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>HD  35650</t>
+          <t>HD 221503</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>GJ 898</t>
         </is>
       </c>
       <c r="AR43" t="inlineStr">
         <is>
-          <t>HIP 25283</t>
+          <t>HIP 116215</t>
         </is>
       </c>
       <c r="AS43" t="inlineStr">
         <is>
-          <t>RotV*</t>
+          <t>HighPM*</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5160075762132996992</t>
+          <t>5479222240596469632</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GJ117</t>
+          <t>GJ260</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E44" t="n">
-        <v>27.38</v>
+        <v>19.66</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>6.05</v>
+        <v>6.803</v>
       </c>
       <c r="H44" t="n">
-        <v>4.68</v>
+        <v>4.1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="J44" t="n">
-        <v>1.14</v>
+        <v>1.89</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>K1V</t>
+          <t>G9V</t>
         </is>
       </c>
       <c r="L44" s="3" t="n">
-        <v>41550</v>
+        <v>41687</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>43021</v>
+        <v>42751</v>
       </c>
       <c r="N44" t="n">
-        <v>4.027378507871321</v>
+        <v>2.913073237508556</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Very high scatter, no peaks in periodograms</t>
+          <t>25 points on 12 nights, no signals in periodograms but high RMS 19.38m/s</t>
         </is>
       </c>
       <c r="P44" t="n">
         <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>GJ117</t>
+          <t>GJ260</t>
         </is>
       </c>
       <c r="V44" t="n">
-        <v>5.160075762132997e+18</v>
+        <v>5.47922224059647e+18</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>5160075762132996992</t>
+          <t>5479222240596469632</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>5160075762132996992</t>
+          <t>5479222240596469632</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>5160075762132996992</t>
+          <t>5479222240596469632</t>
         </is>
       </c>
       <c r="Z44" t="n">
-        <v>43.13567823945298</v>
+        <v>104.9970628612671</v>
       </c>
       <c r="AA44" t="n">
-        <v>-12.77055460477299</v>
+        <v>-61.33500424765096</v>
       </c>
       <c r="AB44" t="n">
-        <v>6.030823094797134</v>
+        <v>6.616180896759033</v>
       </c>
       <c r="AC44" t="n">
-        <v>5.812265396118164</v>
+        <v>6.616180896759033</v>
       </c>
       <c r="AD44" t="n">
-        <v>6.259414196014404</v>
+        <v>7.008779048919678</v>
       </c>
       <c r="AE44" t="n">
-        <v>5.199104785919189</v>
+        <v>6.05385684967041</v>
       </c>
       <c r="AF44" t="n">
-        <v>1.060309410095215</v>
+        <v>0.9549221992492676</v>
       </c>
       <c r="AG44" t="n">
-        <v>96.52004136143886</v>
+        <v>54.52523915853711</v>
       </c>
       <c r="AH44" t="n">
-        <v>5002.33203125</v>
+        <v>5300.3193359375</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.798069953918457</v>
+        <v>0.8360517621040344</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0.4080899655818939</v>
+        <v>0.5749337077140808</v>
       </c>
       <c r="AK44" t="n">
-        <v>0.8505346775054932</v>
+        <v>0.8991650938987732</v>
       </c>
       <c r="AL44" t="n">
-        <v>0.651777364541207</v>
+        <v>0.7612901202966128</v>
       </c>
       <c r="AM44" t="n">
-        <v>0.09073928937995948</v>
+        <v>0.1408483458093113</v>
       </c>
       <c r="AN44" t="n">
-        <v>0.7319342739569804</v>
+        <v>1.25675437580266</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
@@ -7443,158 +7446,155 @@
       </c>
       <c r="AP44" t="inlineStr">
         <is>
-          <t>HD  17925</t>
+          <t>HD  53143</t>
         </is>
       </c>
       <c r="AQ44" t="inlineStr">
         <is>
-          <t>GJ 117</t>
+          <t>GJ 260</t>
         </is>
       </c>
       <c r="AR44" t="inlineStr">
         <is>
-          <t>HIP 13402</t>
+          <t>HIP 33690</t>
         </is>
       </c>
       <c r="AS44" t="inlineStr">
         <is>
-          <t>RSCVnV*</t>
+          <t>HighPM*</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3256334497479041024</t>
+          <t>4819591920506512768</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HD24916</t>
+          <t>HD35650</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E45" t="n">
-        <v>62.94</v>
+        <v>21.1</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>8.013999999999999</v>
+        <v>9.054</v>
       </c>
       <c r="H45" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>0.13</v>
+        <v>0.58</v>
       </c>
       <c r="J45" t="n">
-        <v>1.44295</v>
+        <v>3.25</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>K4V</t>
+          <t>K6V</t>
         </is>
       </c>
       <c r="L45" s="3" t="n">
-        <v>39782</v>
+        <v>37927</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>42754</v>
+        <v>42751</v>
       </c>
       <c r="N45" t="n">
-        <v>8.136892539356605</v>
+        <v>13.20739219712526</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>No data on exoplanet archive. No signal, but very high RMS 73.34 m/s</t>
+          <t>No signals, but high RMS</t>
         </is>
       </c>
       <c r="P45" t="n">
         <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>4641</v>
+        <v>1</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>HD24916</t>
+          <t>HD35650</t>
         </is>
       </c>
       <c r="V45" t="n">
-        <v>3.256334497479041e+18</v>
+        <v>4.819591920506512e+18</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>3256334497479041024</t>
+          <t>4819591920506512768</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>3256334497479041024</t>
+          <t>4819591920506512768</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>3256334497479041024</t>
+          <t>4819591920506512768</t>
         </is>
       </c>
       <c r="Z45" t="n">
-        <v>59.36875368575957</v>
+        <v>81.12595314463759</v>
       </c>
       <c r="AA45" t="n">
-        <v>-1.160099156787286</v>
+        <v>-38.96990653268172</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.047439370741845</v>
+        <v>9.031418509688377</v>
       </c>
       <c r="AC45" t="n">
-        <v>7.672568321228027</v>
+        <v>8.539438247680664</v>
       </c>
       <c r="AD45" t="n">
-        <v>8.283413887023926</v>
+        <v>9.272552490234375</v>
       </c>
       <c r="AE45" t="n">
-        <v>6.926462650299072</v>
+        <v>7.708310604095459</v>
       </c>
       <c r="AF45" t="n">
-        <v>1.356951236724854</v>
+        <v>1.564241886138916</v>
       </c>
       <c r="AG45" t="n">
-        <v>65.42618467484711</v>
+        <v>57.27060617763743</v>
       </c>
       <c r="AH45" t="n">
-        <v>4465.0986328125</v>
+        <v>4265.9111328125</v>
       </c>
       <c r="AI45" t="n">
-        <v>0.7074069380760193</v>
+        <v>0.6704689860343933</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0.187602236866951</v>
+        <v>0.1217036172747612</v>
       </c>
       <c r="AK45" t="n">
-        <v>0.7238188982009888</v>
+        <v>0.6386978030204773</v>
       </c>
       <c r="AL45" t="n">
-        <v>0.4524505383531872</v>
+        <v>0.3668865049789747</v>
       </c>
       <c r="AM45" t="n">
-        <v>0.2256660822742856</v>
+        <v>0.3485261884186165</v>
       </c>
       <c r="AN45" t="n">
-        <v>1.427886910366974</v>
+        <v>1.933296688273392</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
@@ -7603,312 +7603,310 @@
       </c>
       <c r="AP45" t="inlineStr">
         <is>
-          <t>HD  24916, HD  24916A</t>
-        </is>
-      </c>
-      <c r="AQ45" t="inlineStr">
-        <is>
-          <t>GJ 157 A</t>
+          <t>HD  35650</t>
         </is>
       </c>
       <c r="AR45" t="inlineStr">
         <is>
-          <t>HIP 18512</t>
+          <t>HIP 25283</t>
         </is>
       </c>
       <c r="AS45" t="inlineStr">
         <is>
-          <t>Eruptive*</t>
+          <t>RotV*</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6866310172545095424</t>
+          <t>5160075762132996992</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HIP99385</t>
+          <t>GJ117</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D46" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E46" t="n">
-        <v>175.44</v>
+        <v>27.38</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>8.901</v>
+        <v>6.05</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4.68</v>
       </c>
       <c r="I46" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="J46" t="n">
-        <v>2.165634</v>
+        <v>1.14</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>K6Vk</t>
+          <t>K1V</t>
         </is>
       </c>
       <c r="L46" s="3" t="n">
-        <v>38865</v>
+        <v>41550</v>
       </c>
       <c r="M46" s="3" t="n">
-        <v>42915</v>
+        <v>43021</v>
       </c>
       <c r="N46" t="n">
-        <v>11.08829568788501</v>
+        <v>4.027378507871321</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Big jump from pre to post upgrade datasets, strong linear trend. Taking only the pre-upgrade dataset, and removing the linear, peak in RVs at ~300d, RMS 7.49m/s. Nothing in act ind</t>
+          <t>Very high scatter, no peaks in periodograms</t>
         </is>
       </c>
       <c r="P46" t="n">
         <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>4314</v>
+        <v>1</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>HIP99385</t>
+          <t>GJ117</t>
         </is>
       </c>
       <c r="V46" t="n">
-        <v>6.866310172545096e+18</v>
+        <v>5.160075762132997e+18</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>6866310172545095424</t>
+          <t>5160075762132996992</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>6866310172545095424</t>
+          <t>5160075762132996992</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>6866310172545095424</t>
+          <t>5160075762132996992</t>
         </is>
       </c>
       <c r="Z46" t="n">
-        <v>302.5795144151588</v>
+        <v>43.13567823945298</v>
       </c>
       <c r="AA46" t="n">
-        <v>-20.4950698499972</v>
+        <v>-12.77055460477299</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.888467973728179</v>
+        <v>6.030823094797134</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.386856079101562</v>
+        <v>5.812265396118164</v>
       </c>
       <c r="AD46" t="n">
-        <v>9.130548477172852</v>
+        <v>6.259414196014404</v>
       </c>
       <c r="AE46" t="n">
-        <v>7.528278350830078</v>
+        <v>5.199104785919189</v>
       </c>
       <c r="AF46" t="n">
-        <v>1.602270126342773</v>
+        <v>1.060309410095215</v>
       </c>
       <c r="AG46" t="n">
-        <v>63.20742001816341</v>
+        <v>96.52004136143886</v>
       </c>
       <c r="AH46" t="n">
-        <v>3987.56494140625</v>
+        <v>5002.33203125</v>
       </c>
       <c r="AI46" t="n">
-        <v>0.6622315645217896</v>
+        <v>0.798069953918457</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.1229352727532387</v>
+        <v>0.4080899655818939</v>
       </c>
       <c r="AK46" t="n">
-        <v>0.7342212796211243</v>
+        <v>0.8505346775054932</v>
       </c>
       <c r="AL46" t="n">
-        <v>0.3715592404725799</v>
+        <v>0.651777364541207</v>
       </c>
       <c r="AM46" t="n">
-        <v>0.2868841702569348</v>
+        <v>0.09073928937995948</v>
       </c>
       <c r="AN46" t="n">
-        <v>1.591597025751802</v>
+        <v>0.7319342739569804</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
         <is>
-          <t>HD 191391</t>
+          <t>HD  17925</t>
         </is>
       </c>
       <c r="AQ46" t="inlineStr">
         <is>
-          <t>GJ 782</t>
+          <t>GJ 117</t>
         </is>
       </c>
       <c r="AR46" t="inlineStr">
         <is>
-          <t>HIP 99385</t>
+          <t>HIP 13402</t>
         </is>
       </c>
       <c r="AS46" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>RSCVnV*</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5835498883232034816</t>
+          <t>3256334497479041024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GJ613.0</t>
+          <t>HD24916</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>438</v>
+        <v>42</v>
       </c>
       <c r="D47" t="n">
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="E47" t="n">
-        <v>181.42</v>
+        <v>62.94</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>7.124</v>
+        <v>8.013999999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0.223</v>
+        <v>1.4</v>
       </c>
       <c r="I47" t="n">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="J47" t="n">
-        <v>1.78</v>
+        <v>1.44295</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>K2V</t>
+          <t>K4V</t>
         </is>
       </c>
       <c r="L47" s="3" t="n">
-        <v>38184</v>
+        <v>39782</v>
       </c>
       <c r="M47" s="3" t="n">
-        <v>42951</v>
+        <v>42754</v>
       </c>
       <c r="N47" t="n">
-        <v>13.05133470225873</v>
+        <v>8.136892539356605</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>No data on exoplanet archive. Big offset pre/post upgrade. Taking only pre-upgrade data, RV peaks at  15, 30,40d, many in act ind (image saved)</t>
+          <t>No data on exoplanet archive. No signal, but very high RMS 73.34 m/s</t>
         </is>
       </c>
       <c r="P47" t="n">
         <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>4641</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>GJ613.0</t>
+          <t>HD24916</t>
         </is>
       </c>
       <c r="V47" t="n">
-        <v>5.835498883232035e+18</v>
+        <v>3.256334497479041e+18</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>5835498883232034816</t>
+          <t>3256334497479041024</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>5835498883232034816</t>
+          <t>3256334497479041024</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>5835498883232034816</t>
+          <t>3256334497479041024</t>
         </is>
       </c>
       <c r="Z47" t="n">
-        <v>242.4272238506283</v>
+        <v>59.36875368575957</v>
       </c>
       <c r="AA47" t="n">
-        <v>-56.44366680941792</v>
+        <v>-1.160099156787286</v>
       </c>
       <c r="AB47" t="n">
-        <v>7.078011894307137</v>
+        <v>8.047439370741845</v>
       </c>
       <c r="AC47" t="n">
-        <v>6.866890907287598</v>
+        <v>7.672568321228027</v>
       </c>
       <c r="AD47" t="n">
-        <v>7.306442260742188</v>
+        <v>8.283413887023926</v>
       </c>
       <c r="AE47" t="n">
-        <v>6.252590656280518</v>
+        <v>6.926462650299072</v>
       </c>
       <c r="AF47" t="n">
-        <v>1.05385160446167</v>
+        <v>1.356951236724854</v>
       </c>
       <c r="AG47" t="n">
-        <v>67.44689289916005</v>
+        <v>65.42618467484711</v>
       </c>
       <c r="AH47" t="n">
-        <v>4986.0927734375</v>
+        <v>4465.0986328125</v>
       </c>
       <c r="AI47" t="n">
-        <v>0.8275960087776184</v>
+        <v>0.7074069380760193</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.3185525834560394</v>
+        <v>0.187602236866951</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.7564634084701538</v>
+        <v>0.7238188982009888</v>
       </c>
       <c r="AL47" t="n">
-        <v>0.5763257810029581</v>
+        <v>0.4524505383531872</v>
       </c>
       <c r="AM47" t="n">
-        <v>0.1467204169516502</v>
+        <v>0.2256660822742856</v>
       </c>
       <c r="AN47" t="n">
-        <v>1.133288959526535</v>
+        <v>1.427886910366974</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
@@ -7917,155 +7915,155 @@
       </c>
       <c r="AP47" t="inlineStr">
         <is>
-          <t>HD 144628</t>
+          <t>HD  24916, HD  24916A</t>
         </is>
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
-          <t>GJ 613.0, GJ 613</t>
+          <t>GJ 157 A</t>
         </is>
       </c>
       <c r="AR47" t="inlineStr">
         <is>
-          <t>HIP 79190</t>
+          <t>HIP 18512</t>
         </is>
       </c>
       <c r="AS47" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>Eruptive*</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1827242816201846144</t>
+          <t>6866310172545095424</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GJ4130</t>
+          <t>HIP99385</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="D48" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E48" t="n">
-        <v>41.07</v>
+        <v>175.44</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>7.648</v>
-      </c>
-      <c r="H48" t="n">
-        <v>4.5</v>
+        <v>8.901</v>
       </c>
       <c r="I48" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
       <c r="J48" t="n">
-        <v>2.21</v>
+        <v>2.165634</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>K2V</t>
+          <t>K6Vk</t>
         </is>
       </c>
       <c r="L48" s="3" t="n">
-        <v>38928</v>
+        <v>38865</v>
       </c>
       <c r="M48" s="3" t="n">
-        <v>38958</v>
+        <v>42915</v>
       </c>
       <c r="N48" t="n">
-        <v>0.08213552361396304</v>
+        <v>11.08829568788501</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>One known planet, HD 189733b, P 2.2d, 1.13Mj -&gt; HJ. Was observed on only 4 nights, very intensively each night</t>
+          <t>Big jump from pre to post upgrade datasets, strong linear trend. Taking only the pre-upgrade dataset, and removing the linear, peak in RVs at ~300d, RMS 7.49m/s. Nothing in act ind</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>4314</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>GJ4130</t>
+          <t>HIP99385</t>
         </is>
       </c>
       <c r="V48" t="n">
-        <v>1.827242816201846e+18</v>
+        <v>6.866310172545096e+18</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>1827242816201846144</t>
+          <t>6866310172545095424</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>1827242816201846144</t>
+          <t>6866310172545095424</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>1827242816201846144</t>
+          <t>6866310172545095424</t>
         </is>
       </c>
       <c r="Z48" t="n">
-        <v>300.1821218062407</v>
+        <v>302.5795144151588</v>
       </c>
       <c r="AA48" t="n">
-        <v>22.70974110516827</v>
+        <v>-20.4950698499972</v>
       </c>
       <c r="AB48" t="n">
-        <v>7.663595725979805</v>
+        <v>8.888467973728179</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.428370952606201</v>
+        <v>8.386856079101562</v>
       </c>
       <c r="AD48" t="n">
-        <v>7.893073081970215</v>
+        <v>9.130548477172852</v>
       </c>
       <c r="AE48" t="n">
-        <v>6.797156810760498</v>
+        <v>7.528278350830078</v>
       </c>
       <c r="AF48" t="n">
-        <v>1.095916271209717</v>
+        <v>1.602270126342773</v>
       </c>
       <c r="AG48" t="n">
-        <v>50.56684941372739</v>
+        <v>63.20742001816341</v>
       </c>
       <c r="AH48" t="n">
-        <v>4897.2509765625</v>
+        <v>3987.56494140625</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.7978719472885132</v>
+        <v>0.6622315645217896</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0.3431615233421326</v>
+        <v>0.1229352727532387</v>
       </c>
       <c r="AK48" t="n">
-        <v>0.8137521743774414</v>
+        <v>0.7342212796211243</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.6007955509418719</v>
+        <v>0.3715592404725799</v>
       </c>
       <c r="AM48" t="n">
-        <v>0.1917407803139704</v>
+        <v>0.2868841702569348</v>
       </c>
       <c r="AN48" t="n">
-        <v>1.48474424488518</v>
+        <v>1.591597025751802</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
@@ -8074,179 +8072,650 @@
       </c>
       <c r="AP48" t="inlineStr">
         <is>
-          <t>HD 189733, HD 189733A</t>
+          <t>HD 191391</t>
         </is>
       </c>
       <c r="AQ48" t="inlineStr">
         <is>
-          <t>GJ 4130</t>
+          <t>GJ 782</t>
         </is>
       </c>
       <c r="AR48" t="inlineStr">
         <is>
-          <t>HIP 98505</t>
+          <t>HIP 99385</t>
         </is>
       </c>
       <c r="AS48" t="inlineStr">
         <is>
-          <t>BYDraV*</t>
+          <t>HighPM*</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3330062833797919744</t>
+          <t>5835498883232034816</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GJ230</t>
+          <t>GJ613.0</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>18</v>
+        <v>438</v>
       </c>
       <c r="D49" t="n">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="E49" t="n">
-        <v>5046.08</v>
+        <v>181.42</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
+      <c r="G49" t="n">
+        <v>7.124</v>
+      </c>
       <c r="H49" t="n">
-        <v>2.2</v>
+        <v>0.223</v>
       </c>
       <c r="I49" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="J49" t="n">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>G5V</t>
+          <t>K2V</t>
         </is>
       </c>
       <c r="L49" s="3" t="n">
-        <v>38340</v>
+        <v>38184</v>
       </c>
       <c r="M49" s="3" t="n">
-        <v>43138</v>
+        <v>42951</v>
       </c>
       <c r="N49" t="n">
-        <v>13.13620807665982</v>
+        <v>13.05133470225873</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Linear trend? Or seasonal offset? only three RV points in second half, two scattered RV points in between. The activity indices are also offset, which is suspicious. Looking only at season 1 (plot saved), looks like a very nice half of a Keplerian! Wonder why it wasn't continued properly? -&gt; Could be worth fitting out the RV signal, seeing what it looks like -&gt; Fits to 8d, 0.25Mj - HJ? remaining RMS still a bit high</t>
+          <t>No data on exoplanet archive. Big offset pre/post upgrade. Taking only pre-upgrade data, RV peaks at  15, 30,40d, many in act ind (image saved)</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>16</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
+        <v>57</v>
       </c>
       <c r="S49" t="n">
         <v>1</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
+          <t>GJ613.0</t>
+        </is>
+      </c>
+      <c r="V49" t="n">
+        <v>5.835498883232035e+18</v>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>5835498883232034816</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>5835498883232034816</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>5835498883232034816</t>
+        </is>
+      </c>
+      <c r="Z49" t="n">
+        <v>242.4272238506283</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-56.44366680941792</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>7.078011894307137</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>6.866890907287598</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>7.306442260742188</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>6.252590656280518</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.05385160446167</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>67.44689289916005</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>4986.0927734375</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0.8275960087776184</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0.3185525834560394</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0.7564634084701538</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0.5763257810029581</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0.1467204169516502</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.133288959526535</v>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP49" t="inlineStr">
+        <is>
+          <t>HD 144628</t>
+        </is>
+      </c>
+      <c r="AQ49" t="inlineStr">
+        <is>
+          <t>GJ 613.0, GJ 613</t>
+        </is>
+      </c>
+      <c r="AR49" t="inlineStr">
+        <is>
+          <t>HIP 79190</t>
+        </is>
+      </c>
+      <c r="AS49" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3498481592531208576</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>HD111261B</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>12</v>
+      </c>
+      <c r="D50" t="n">
+        <v>12</v>
+      </c>
+      <c r="E50" t="n">
+        <v>204.17</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.518791</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>K7Vk:</t>
+        </is>
+      </c>
+      <c r="L50" s="3" t="n">
+        <v>38813</v>
+      </c>
+      <c r="M50" s="3" t="n">
+        <v>43184</v>
+      </c>
+      <c r="N50" t="n">
+        <v>11.96714579055442</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>No data on exoplanet archive. 12 data points, very high scatter of 200m/s - unless it's offsets? But even taking only the first set it's high</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>14</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>4206</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>HD111261B</t>
+        </is>
+      </c>
+      <c r="V50" t="n">
+        <v>3.498481592531209e+18</v>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>3498481592531208576</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>3498481592531208576</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>3498481592531208576</t>
+        </is>
+      </c>
+      <c r="Z50" t="n">
+        <v>192.0400474542226</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-24.80394386396552</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>9.903611348943711</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>9.304690361022949</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>10.14919948577881</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>8.406003952026367</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.743195533752441</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>53.39872999671822</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>3973.93701171875</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0.5999892354011536</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0.07866456359624863</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0.5917183756828308</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0.2973166017950279</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0.4533946336142503</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>2.141736346299918</v>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>HD 111261B</t>
+        </is>
+      </c>
+      <c r="AQ50" t="inlineStr">
+        <is>
+          <t>GJ 1164 B</t>
+        </is>
+      </c>
+      <c r="AR50" t="inlineStr">
+        <is>
+          <t>HIP 62471</t>
+        </is>
+      </c>
+      <c r="AS50" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1827242816201846144</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>GJ4130</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>117</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E51" t="n">
+        <v>41.07</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>7.648</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>K2V</t>
+        </is>
+      </c>
+      <c r="L51" s="3" t="n">
+        <v>38928</v>
+      </c>
+      <c r="M51" s="3" t="n">
+        <v>38958</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.08213552361396304</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>One known planet, HD 189733b, P 2.2d, 1.13Mj -&gt; HJ. Was observed on only 4 nights, very intensively each night</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>GJ4130</t>
+        </is>
+      </c>
+      <c r="V51" t="n">
+        <v>1.827242816201846e+18</v>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>1827242816201846144</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>1827242816201846144</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>1827242816201846144</t>
+        </is>
+      </c>
+      <c r="Z51" t="n">
+        <v>300.1821218062407</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>22.70974110516827</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>7.663595725979805</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>7.428370952606201</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>7.893073081970215</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>6.797156810760498</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.095916271209717</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>50.56684941372739</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>4897.2509765625</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0.7978719472885132</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0.3431615233421326</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0.8137521743774414</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0.6007955509418719</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0.1917407803139704</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.48474424488518</v>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP51" t="inlineStr">
+        <is>
+          <t>HD 189733, HD 189733A</t>
+        </is>
+      </c>
+      <c r="AQ51" t="inlineStr">
+        <is>
+          <t>GJ 4130</t>
+        </is>
+      </c>
+      <c r="AR51" t="inlineStr">
+        <is>
+          <t>HIP 98505</t>
+        </is>
+      </c>
+      <c r="AS51" t="inlineStr">
+        <is>
+          <t>BYDraV*</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3330062833797919744</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>GJ230</t>
         </is>
       </c>
-      <c r="V49" t="n">
+      <c r="C52" t="n">
+        <v>18</v>
+      </c>
+      <c r="D52" t="n">
+        <v>12</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5046.08</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>G5V</t>
+        </is>
+      </c>
+      <c r="L52" s="3" t="n">
+        <v>38340</v>
+      </c>
+      <c r="M52" s="3" t="n">
+        <v>43138</v>
+      </c>
+      <c r="N52" t="n">
+        <v>13.13620807665982</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Linear trend? Or seasonal offset? only three RV points in second half, two scattered RV points in between. The activity indices are also offset, which is suspicious. Looking only at season 1 (plot saved), looks like a very nice half of a Keplerian! Wonder why it wasn't continued properly? -&gt; Could be worth fitting out the RV signal, seeing what it looks like -&gt; Fits to 8d, 0.25Mj - HJ? remaining RMS still a bit high</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>16</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>GJ230</t>
+        </is>
+      </c>
+      <c r="V52" t="n">
         <v>3.33006283379792e+18</v>
       </c>
-      <c r="W49" t="inlineStr">
+      <c r="W52" t="inlineStr">
         <is>
           <t>3330062833797919744</t>
         </is>
       </c>
-      <c r="X49" t="inlineStr">
+      <c r="X52" t="inlineStr">
         <is>
           <t>3330062833797919744</t>
         </is>
       </c>
-      <c r="Y49" t="inlineStr">
+      <c r="Y52" t="inlineStr">
         <is>
           <t>3330062833797919744</t>
         </is>
       </c>
-      <c r="Z49" t="n">
+      <c r="Z52" t="n">
         <v>93.30244910592171</v>
       </c>
-      <c r="AA49" t="n">
+      <c r="AA52" t="n">
         <v>10.62581990758492</v>
       </c>
-      <c r="AB49" t="n">
+      <c r="AB52" t="n">
         <v>6.271036148071289</v>
       </c>
-      <c r="AC49" t="n">
+      <c r="AC52" t="n">
         <v>6.271036148071289</v>
       </c>
-      <c r="AD49" t="n">
+      <c r="AD52" t="n">
         <v>6.60129976272583</v>
       </c>
-      <c r="AE49" t="n">
+      <c r="AE52" t="n">
         <v>5.762508869171143</v>
       </c>
-      <c r="AF49" t="n">
+      <c r="AF52" t="n">
         <v>0.8387908935546875</v>
       </c>
-      <c r="AG49" t="n">
+      <c r="AG52" t="n">
         <v>53.76526189706887</v>
       </c>
-      <c r="AH49" t="n">
+      <c r="AH52" t="n">
         <v>5636.935546875</v>
       </c>
-      <c r="AI49" t="n">
+      <c r="AI52" t="n">
         <v>0.9699419736862183</v>
       </c>
-      <c r="AJ49" t="n">
+      <c r="AJ52" t="n">
         <v>0.7957682013511658</v>
       </c>
-      <c r="AK49" t="n">
+      <c r="AK52" t="n">
         <v>0.93532794713974</v>
       </c>
-      <c r="AL49" t="n">
+      <c r="AL52" t="n">
         <v>0.8778667018176319</v>
       </c>
-      <c r="AM49" t="n">
+      <c r="AM52" t="n">
         <v>0.1408428579760723</v>
       </c>
-      <c r="AN49" t="n">
+      <c r="AN52" t="n">
         <v>1.453546621967481</v>
       </c>
-      <c r="AO49" t="inlineStr">
+      <c r="AO52" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AP49" t="inlineStr">
+      <c r="AP52" t="inlineStr">
         <is>
           <t>HD  42807</t>
         </is>
       </c>
-      <c r="AQ49" t="inlineStr">
+      <c r="AQ52" t="inlineStr">
         <is>
           <t>GJ 230</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AR52" t="inlineStr">
         <is>
           <t>HIP 29525</t>
         </is>
       </c>
-      <c r="AS49" t="inlineStr">
+      <c r="AS52" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
         </is>

--- a/results/merged_result_MJ.xlsx
+++ b/results/merged_result_MJ.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT64"/>
+  <dimension ref="A1:AV65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,8 @@
     <col width="12" customWidth="1" min="44" max="44"/>
     <col width="19" customWidth="1" min="45" max="45"/>
     <col width="22" customWidth="1" min="46" max="46"/>
+    <col width="19" customWidth="1" min="47" max="47"/>
+    <col width="13" customWidth="1" min="48" max="48"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -716,6 +718,16 @@
           <t>Density [Solar unit]</t>
         </is>
       </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Distance [pc]</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>V_mag_group</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -874,6 +886,14 @@
       <c r="AT2" t="n">
         <v>2.11927517458269</v>
       </c>
+      <c r="AU2" t="n">
+        <v>19.11360225322881</v>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1029,6 +1049,14 @@
       <c r="AT3" t="n">
         <v>2.052688921124784</v>
       </c>
+      <c r="AU3" t="n">
+        <v>17.86166659875671</v>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1184,6 +1212,14 @@
       <c r="AT4" t="n">
         <v>2.041952602911969</v>
       </c>
+      <c r="AU4" t="n">
+        <v>16.76761069658454</v>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1339,6 +1375,14 @@
       <c r="AT5" t="n">
         <v>2.239104212270826</v>
       </c>
+      <c r="AU5" t="n">
+        <v>19.17020321539005</v>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1494,6 +1538,14 @@
       <c r="AT6" t="n">
         <v>1.528241921070437</v>
       </c>
+      <c r="AU6" t="n">
+        <v>14.67227710117747</v>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1652,6 +1704,14 @@
       <c r="AT7" t="n">
         <v>1.621604673108436</v>
       </c>
+      <c r="AU7" t="n">
+        <v>19.62991435281008</v>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1807,6 +1867,14 @@
       <c r="AT8" t="n">
         <v>0.8528938169750084</v>
       </c>
+      <c r="AU8" t="n">
+        <v>17.93225480992242</v>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1962,6 +2030,14 @@
       <c r="AT9" t="n">
         <v>1.055039360931723</v>
       </c>
+      <c r="AU9" t="n">
+        <v>17.55481503082285</v>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2117,6 +2193,14 @@
       <c r="AT10" t="n">
         <v>1.356604055150243</v>
       </c>
+      <c r="AU10" t="n">
+        <v>13.0309238390451</v>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>Brightest</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2272,6 +2356,14 @@
       <c r="AT11" t="n">
         <v>1.292561167675858</v>
       </c>
+      <c r="AU11" t="n">
+        <v>17.74227354232349</v>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2427,6 +2519,14 @@
       <c r="AT12" t="n">
         <v>2.3728520291368</v>
       </c>
+      <c r="AU12" t="n">
+        <v>12.34142491279828</v>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2582,6 +2682,14 @@
       <c r="AT13" t="n">
         <v>2.366201403288587</v>
       </c>
+      <c r="AU13" t="n">
+        <v>17.91335395150217</v>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2745,6 +2853,14 @@
       <c r="AT14" t="n">
         <v>2.032467946890793</v>
       </c>
+      <c r="AU14" t="n">
+        <v>18.50341299310089</v>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2903,6 +3019,14 @@
       <c r="AT15" t="n">
         <v>1.781510507227236</v>
       </c>
+      <c r="AU15" t="n">
+        <v>10.46386619996736</v>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3058,6 +3182,14 @@
       <c r="AT16" t="n">
         <v>0.7940434459215121</v>
       </c>
+      <c r="AU16" t="n">
+        <v>14.73911160268253</v>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>Brightest</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3221,6 +3353,14 @@
       <c r="AT17" t="n">
         <v>1.78211177339737</v>
       </c>
+      <c r="AU17" t="n">
+        <v>18.81162115767776</v>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3376,6 +3516,14 @@
       <c r="AT18" t="n">
         <v>0.906764956917385</v>
       </c>
+      <c r="AU18" t="n">
+        <v>8.534415098502675</v>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>Brightest</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3534,6 +3682,14 @@
       <c r="AT19" t="n">
         <v>1.457793859010921</v>
       </c>
+      <c r="AU19" t="n">
+        <v>8.791104886960111</v>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>Brightest</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3692,6 +3848,14 @@
       <c r="AT20" t="n">
         <v>2.745567710296219</v>
       </c>
+      <c r="AU20" t="n">
+        <v>16.39172288343968</v>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3842,6 +4006,14 @@
       <c r="AT21" t="n">
         <v>0.8158904314580906</v>
       </c>
+      <c r="AU21" t="n">
+        <v>19.61960010657953</v>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3995,6 +4167,14 @@
       <c r="AT22" t="n">
         <v>2.052239288285687</v>
       </c>
+      <c r="AU22" t="n">
+        <v>13.93717968355234</v>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4150,6 +4330,14 @@
       <c r="AT23" t="n">
         <v>1.852212400374402</v>
       </c>
+      <c r="AU23" t="n">
+        <v>18.27507516390551</v>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4313,6 +4501,14 @@
       <c r="AT24" t="n">
         <v>1.769575738741929</v>
       </c>
+      <c r="AU24" t="n">
+        <v>15.71044010482964</v>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4468,6 +4664,14 @@
       <c r="AT25" t="n">
         <v>1.270700200018976</v>
       </c>
+      <c r="AU25" t="n">
+        <v>16.8464974404826</v>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4628,6 +4832,14 @@
       <c r="AT26" t="n">
         <v>1.37647581175124</v>
       </c>
+      <c r="AU26" t="n">
+        <v>12.04471428916949</v>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>Brightest</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4783,6 +4995,14 @@
       <c r="AT27" t="n">
         <v>2.026252168653316</v>
       </c>
+      <c r="AU27" t="n">
+        <v>18.2083349278885</v>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4943,6 +5163,14 @@
       <c r="AT28" t="n">
         <v>0.9403060490214101</v>
       </c>
+      <c r="AU28" t="n">
+        <v>14.136843884035</v>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>Brightest</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5098,6 +5326,14 @@
       <c r="AT29" t="n">
         <v>1.226402369197755</v>
       </c>
+      <c r="AU29" t="n">
+        <v>12.57936463354278</v>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>Brightest</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5248,6 +5484,14 @@
       <c r="AT30" t="n">
         <v>1.603459718691285</v>
       </c>
+      <c r="AU30" t="n">
+        <v>7.228567098899183</v>
+      </c>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5401,6 +5645,14 @@
       <c r="AT31" t="n">
         <v>1.793063235341547</v>
       </c>
+      <c r="AU31" t="n">
+        <v>19.15340158131814</v>
+      </c>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5553,6 +5805,14 @@
       <c r="AT32" t="n">
         <v>2.241552152343242</v>
       </c>
+      <c r="AU32" t="n">
+        <v>17.56383168799474</v>
+      </c>
+      <c r="AV32" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5711,6 +5971,14 @@
       <c r="AT33" t="n">
         <v>3.191221396749432</v>
       </c>
+      <c r="AU33" t="n">
+        <v>18.39359418021142</v>
+      </c>
+      <c r="AV33" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5866,6 +6134,14 @@
       <c r="AT34" t="n">
         <v>1.566652800021061</v>
       </c>
+      <c r="AU34" t="n">
+        <v>17.68739743596811</v>
+      </c>
+      <c r="AV34" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6021,6 +6297,14 @@
       <c r="AT35" t="n">
         <v>1.953543939316974</v>
       </c>
+      <c r="AU35" t="n">
+        <v>18.67265068138592</v>
+      </c>
+      <c r="AV35" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6176,6 +6460,14 @@
       <c r="AT36" t="n">
         <v>1.712118408202441</v>
       </c>
+      <c r="AU36" t="n">
+        <v>8.811567976359871</v>
+      </c>
+      <c r="AV36" t="inlineStr">
+        <is>
+          <t>Brightest</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6334,6 +6626,14 @@
       <c r="AT37" t="n">
         <v>2.216291768419251</v>
       </c>
+      <c r="AU37" t="n">
+        <v>3.638438981826665</v>
+      </c>
+      <c r="AV37" t="inlineStr">
+        <is>
+          <t>Brightest</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6484,6 +6784,14 @@
       <c r="AT38" t="n">
         <v>1.114227419076153</v>
       </c>
+      <c r="AU38" t="n">
+        <v>16.95317213092454</v>
+      </c>
+      <c r="AV38" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6636,6 +6944,14 @@
       <c r="AT39" t="n">
         <v>1.333250845514523</v>
       </c>
+      <c r="AU39" t="n">
+        <v>15.771242532647</v>
+      </c>
+      <c r="AV39" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6791,6 +7107,14 @@
       <c r="AT40" t="n">
         <v>1.844836198763456</v>
       </c>
+      <c r="AU40" t="n">
+        <v>12.16426728699849</v>
+      </c>
+      <c r="AV40" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6943,6 +7267,14 @@
       <c r="AT41" t="n">
         <v>1.953362366508123</v>
       </c>
+      <c r="AU41" t="n">
+        <v>7.435229060298576</v>
+      </c>
+      <c r="AV41" t="inlineStr">
+        <is>
+          <t>Brightest</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7098,6 +7430,14 @@
       <c r="AT42" t="n">
         <v>2.324699077934539</v>
       </c>
+      <c r="AU42" t="n">
+        <v>13.59651784149522</v>
+      </c>
+      <c r="AV42" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7253,6 +7593,14 @@
       <c r="AT43" t="n">
         <v>1.642855324617889</v>
       </c>
+      <c r="AU43" t="n">
+        <v>16.18810659335618</v>
+      </c>
+      <c r="AV43" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7408,6 +7756,14 @@
       <c r="AT44" t="n">
         <v>1.219684522050477</v>
       </c>
+      <c r="AU44" t="n">
+        <v>15.21037582946627</v>
+      </c>
+      <c r="AV44" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7563,6 +7919,14 @@
       <c r="AT45" t="n">
         <v>1.75728268109685</v>
       </c>
+      <c r="AU45" t="n">
+        <v>12.93223839703444</v>
+      </c>
+      <c r="AV45" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7713,6 +8077,14 @@
       <c r="AT46" t="n">
         <v>1.185166893634851</v>
       </c>
+      <c r="AU46" t="n">
+        <v>14.79273794856554</v>
+      </c>
+      <c r="AV46" t="inlineStr">
+        <is>
+          <t>Brightest</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7863,6 +8235,14 @@
       <c r="AT47" t="n">
         <v>2.228367536626836</v>
       </c>
+      <c r="AU47" t="n">
+        <v>19.15843702324353</v>
+      </c>
+      <c r="AV47" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8021,6 +8401,14 @@
       <c r="AT48" t="n">
         <v>1.450416803044171</v>
       </c>
+      <c r="AU48" t="n">
+        <v>17.30031548819083</v>
+      </c>
+      <c r="AV48" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8174,6 +8562,14 @@
       <c r="AT49" t="n">
         <v>1.95212998726749</v>
       </c>
+      <c r="AU49" t="n">
+        <v>15.58056293018915</v>
+      </c>
+      <c r="AV49" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8332,6 +8728,14 @@
       <c r="AT50" t="n">
         <v>2.138539647024254</v>
       </c>
+      <c r="AU50" t="n">
+        <v>13.20790661666426</v>
+      </c>
+      <c r="AV50" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8487,6 +8891,14 @@
       <c r="AT51" t="n">
         <v>1.717218532617633</v>
       </c>
+      <c r="AU51" t="n">
+        <v>11.44526772917466</v>
+      </c>
+      <c r="AV51" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8642,6 +9054,14 @@
       <c r="AT52" t="n">
         <v>0.94254112753729</v>
       </c>
+      <c r="AU52" t="n">
+        <v>13.23996519741542</v>
+      </c>
+      <c r="AV52" t="inlineStr">
+        <is>
+          <t>Brightest</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8800,6 +9220,14 @@
       <c r="AT53" t="n">
         <v>1.747532432148586</v>
       </c>
+      <c r="AU53" t="n">
+        <v>7.601527372616974</v>
+      </c>
+      <c r="AV53" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8955,6 +9383,14 @@
       <c r="AT54" t="n">
         <v>1.630200033813258</v>
       </c>
+      <c r="AU54" t="n">
+        <v>16.81223174833525</v>
+      </c>
+      <c r="AV54" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9113,6 +9549,14 @@
       <c r="AT55" t="n">
         <v>1.582829748692533</v>
       </c>
+      <c r="AU55" t="n">
+        <v>14.54849207934481</v>
+      </c>
+      <c r="AV55" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9268,6 +9712,14 @@
       <c r="AT56" t="n">
         <v>1.15004501453396</v>
       </c>
+      <c r="AU56" t="n">
+        <v>18.34013046861489</v>
+      </c>
+      <c r="AV56" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9418,6 +9870,14 @@
       <c r="AT57" t="n">
         <v>2.573311979644731</v>
       </c>
+      <c r="AU57" t="n">
+        <v>17.46096412701272</v>
+      </c>
+      <c r="AV57" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9573,6 +10033,14 @@
       <c r="AT58" t="n">
         <v>1.297074282976997</v>
       </c>
+      <c r="AU58" t="n">
+        <v>10.36054259710993</v>
+      </c>
+      <c r="AV58" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9731,6 +10199,14 @@
       <c r="AT59" t="n">
         <v>1.865432587008721</v>
       </c>
+      <c r="AU59" t="n">
+        <v>15.28440035086513</v>
+      </c>
+      <c r="AV59" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9886,6 +10362,14 @@
       <c r="AT60" t="n">
         <v>1.673127109034097</v>
       </c>
+      <c r="AU60" t="n">
+        <v>15.82092734860303</v>
+      </c>
+      <c r="AV60" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10041,6 +10525,14 @@
       <c r="AT61" t="n">
         <v>1.848206256583958</v>
       </c>
+      <c r="AU61" t="n">
+        <v>14.82647987202467</v>
+      </c>
+      <c r="AV61" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10196,137 +10688,136 @@
       <c r="AT62" t="n">
         <v>2.895997877367483</v>
       </c>
+      <c r="AU62" t="n">
+        <v>18.72703714229642</v>
+      </c>
+      <c r="AV62" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1827242816201846144</t>
+          <t>3372159045216183552</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GJ4130</t>
+          <t>GJ233</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="D63" t="n">
         <v>4</v>
       </c>
       <c r="E63" t="n">
-        <v>41.07</v>
+        <v>22750.98</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" t="n">
-        <v>7.648</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>4.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I63" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
       <c r="J63" t="n">
-        <v>2.21</v>
+        <v>2.943238</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>K2V</t>
+          <t>K2Ve</t>
         </is>
       </c>
       <c r="L63" s="3" t="n">
-        <v>38928</v>
+        <v>38262</v>
       </c>
       <c r="M63" s="3" t="n">
-        <v>38958</v>
+        <v>38430</v>
       </c>
       <c r="N63" t="n">
-        <v>0.08213552361396304</v>
+        <v>0.459958932238193</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>One known planet, HD 189733b, P 2.2d, 1.13Mj -&gt; HJ. Was observed on only 4 nights, very intensively each night</t>
+          <t>No data on exoplanet archive. 8 obs on 4 nights, huge RV variations!</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>4786</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>GJ4130</t>
+          <t>GJ233</t>
         </is>
       </c>
       <c r="V63" t="n">
-        <v>1.827242816201846e+18</v>
+        <v>3.372159045216183e+18</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>1827242816201846144</t>
+          <t>3372159045216183552</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>1827242816201846144</t>
+          <t>3372159045216183552</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>1827242816201846144</t>
+          <t>3372159045216183552</t>
         </is>
       </c>
       <c r="Z63" t="n">
-        <v>300.1821218062407</v>
+        <v>96.54210989551521</v>
       </c>
       <c r="AA63" t="n">
-        <v>22.70974110516827</v>
+        <v>18.75620888605506</v>
       </c>
       <c r="AB63" t="n">
-        <v>7.663595725979805</v>
+        <v>6.760678221149445</v>
       </c>
       <c r="AC63" t="n">
-        <v>7.428370952606201</v>
+        <v>6.484982013702393</v>
       </c>
       <c r="AD63" t="n">
-        <v>7.893073081970215</v>
+        <v>6.992666721343994</v>
       </c>
       <c r="AE63" t="n">
-        <v>6.797156810760498</v>
+        <v>5.795860767364502</v>
       </c>
       <c r="AF63" t="n">
-        <v>1.095916271209717</v>
+        <v>1.196805953979492</v>
       </c>
       <c r="AG63" t="n">
-        <v>50.56684941372739</v>
+        <v>68.4141911114458</v>
       </c>
       <c r="AH63" t="n">
-        <v>4897.251</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>0.79787195</v>
+        <v>4602.566867780783</v>
       </c>
       <c r="AJ63" t="n">
-        <v>0.34316152</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>0.8137522</v>
+        <v>0.3698282317554196</v>
       </c>
       <c r="AL63" t="n">
-        <v>0.6007955473381266</v>
+        <v>0.6319064737305783</v>
       </c>
       <c r="AM63" t="n">
-        <v>0.1917407804419631</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>1.484744243946189</v>
+        <v>0.1248168035010945</v>
       </c>
       <c r="AO63" t="inlineStr">
         <is>
@@ -10335,12 +10826,12 @@
       </c>
       <c r="AP63" t="inlineStr">
         <is>
-          <t>HD 189733, HD 189733A</t>
+          <t>HD  45088</t>
         </is>
       </c>
       <c r="AQ63" t="inlineStr">
         <is>
-          <t>GJ 4130</t>
+          <t>GJ 233 A, GJ 233</t>
         </is>
       </c>
       <c r="AS63" t="inlineStr">
@@ -10348,165 +10839,341 @@
           <t>BYDraV*</t>
         </is>
       </c>
-      <c r="AT63" t="n">
-        <v>1.480664521061823</v>
+      <c r="AU63" t="n">
+        <v>14.6168504480454</v>
+      </c>
+      <c r="AV63" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3330062833797919744</t>
+          <t>1827242816201846144</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GJ230</t>
+          <t>GJ4130</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="D64" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E64" t="n">
-        <v>5046.08</v>
+        <v>41.07</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>7.648</v>
       </c>
       <c r="H64" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="I64" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="J64" t="n">
-        <v>2.01</v>
+        <v>2.21</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>G5V</t>
+          <t>K2V</t>
         </is>
       </c>
       <c r="L64" s="3" t="n">
-        <v>38340</v>
+        <v>38928</v>
       </c>
       <c r="M64" s="3" t="n">
-        <v>43138</v>
+        <v>38958</v>
       </c>
       <c r="N64" t="n">
-        <v>13.13620807665982</v>
+        <v>0.08213552361396304</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Linear trend? Or seasonal offset? only three RV points in second half, two scattered RV points in between. The activity indices are also offset, which is suspicious. Looking only at season 1 (plot saved), looks like a very nice half of a Keplerian! Wonder why it wasn't continued properly? -&gt; Could be worth fitting out the RV signal, seeing what it looks like -&gt; Fits to 8d, 0.25Mj - HJ? remaining RMS still a bit high</t>
+          <t>One known planet, HD 189733b, P 2.2d, 1.13Mj -&gt; HJ. Was observed on only 4 nights, very intensively each night</t>
         </is>
       </c>
       <c r="P64" t="n">
         <v>9</v>
       </c>
       <c r="Q64" t="n">
-        <v>16</v>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
+        <v>2</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
+          <t>GJ4130</t>
+        </is>
+      </c>
+      <c r="V64" t="n">
+        <v>1.827242816201846e+18</v>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>1827242816201846144</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>1827242816201846144</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>1827242816201846144</t>
+        </is>
+      </c>
+      <c r="Z64" t="n">
+        <v>300.1821218062407</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>22.70974110516827</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>7.663595725979805</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>7.428370952606201</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>7.893073081970215</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>6.797156810760498</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.095916271209717</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>50.56684941372739</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>4897.251</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>0.79787195</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>0.34316152</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>0.8137522</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>0.6007955473381266</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>0.1917407804419631</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.484744243946189</v>
+      </c>
+      <c r="AO64" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP64" t="inlineStr">
+        <is>
+          <t>HD 189733, HD 189733A</t>
+        </is>
+      </c>
+      <c r="AQ64" t="inlineStr">
+        <is>
+          <t>GJ 4130</t>
+        </is>
+      </c>
+      <c r="AS64" t="inlineStr">
+        <is>
+          <t>BYDraV*</t>
+        </is>
+      </c>
+      <c r="AT64" t="n">
+        <v>1.480664521061823</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>19.77580196500298</v>
+      </c>
+      <c r="AV64" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3330062833797919744</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>GJ230</t>
         </is>
       </c>
-      <c r="V64" t="n">
+      <c r="C65" t="n">
+        <v>18</v>
+      </c>
+      <c r="D65" t="n">
+        <v>12</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5046.08</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>G5V</t>
+        </is>
+      </c>
+      <c r="L65" s="3" t="n">
+        <v>38340</v>
+      </c>
+      <c r="M65" s="3" t="n">
+        <v>43138</v>
+      </c>
+      <c r="N65" t="n">
+        <v>13.13620807665982</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Linear trend? Or seasonal offset? only three RV points in second half, two scattered RV points in between. The activity indices are also offset, which is suspicious. Looking only at season 1 (plot saved), looks like a very nice half of a Keplerian! Wonder why it wasn't continued properly? -&gt; Could be worth fitting out the RV signal, seeing what it looks like -&gt; Fits to 8d, 0.25Mj - HJ? remaining RMS still a bit high</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>16</v>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>GJ230</t>
+        </is>
+      </c>
+      <c r="V65" t="n">
         <v>3.33006283379792e+18</v>
       </c>
-      <c r="W64" t="inlineStr">
+      <c r="W65" t="inlineStr">
         <is>
           <t>3330062833797919744</t>
         </is>
       </c>
-      <c r="X64" t="inlineStr">
+      <c r="X65" t="inlineStr">
         <is>
           <t>3330062833797919744</t>
         </is>
       </c>
-      <c r="Y64" t="inlineStr">
+      <c r="Y65" t="inlineStr">
         <is>
           <t>3330062833797919744</t>
         </is>
       </c>
-      <c r="Z64" t="n">
+      <c r="Z65" t="n">
         <v>93.30244910592171</v>
       </c>
-      <c r="AA64" t="n">
+      <c r="AA65" t="n">
         <v>10.62581990758492</v>
       </c>
-      <c r="AB64" t="n">
+      <c r="AB65" t="n">
         <v>6.271036148071289</v>
       </c>
-      <c r="AC64" t="n">
+      <c r="AC65" t="n">
         <v>6.271036148071289</v>
       </c>
-      <c r="AD64" t="n">
+      <c r="AD65" t="n">
         <v>6.60129976272583</v>
       </c>
-      <c r="AE64" t="n">
+      <c r="AE65" t="n">
         <v>5.762508869171143</v>
       </c>
-      <c r="AF64" t="n">
+      <c r="AF65" t="n">
         <v>0.8387908935546875</v>
       </c>
-      <c r="AG64" t="n">
+      <c r="AG65" t="n">
         <v>53.76526189706887</v>
       </c>
-      <c r="AH64" t="n">
+      <c r="AH65" t="n">
         <v>5636.9355</v>
       </c>
-      <c r="AI64" t="n">
+      <c r="AI65" t="n">
         <v>0.969942</v>
       </c>
-      <c r="AJ64" t="n">
+      <c r="AJ65" t="n">
         <v>0.7957682</v>
       </c>
-      <c r="AK64" t="n">
+      <c r="AK65" t="n">
         <v>0.93532795</v>
       </c>
-      <c r="AL64" t="n">
+      <c r="AL65" t="n">
         <v>0.8778667036136425</v>
       </c>
-      <c r="AM64" t="n">
+      <c r="AM65" t="n">
         <v>0.1408428551255723</v>
       </c>
-      <c r="AN64" t="n">
+      <c r="AN65" t="n">
         <v>1.453546613752929</v>
       </c>
-      <c r="AO64" t="inlineStr">
+      <c r="AO65" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AP64" t="inlineStr">
+      <c r="AP65" t="inlineStr">
         <is>
           <t>HD  42807</t>
         </is>
       </c>
-      <c r="AQ64" t="inlineStr">
+      <c r="AQ65" t="inlineStr">
         <is>
           <t>GJ 230</t>
         </is>
       </c>
-      <c r="AS64" t="inlineStr">
+      <c r="AS65" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
         </is>
       </c>
-      <c r="AT64" t="n">
+      <c r="AT65" t="n">
         <v>1.185370263578394</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>18.59937001542844</v>
+      </c>
+      <c r="AV65" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
       </c>
     </row>
   </sheetData>
